--- a/lab-3/data/PDMS.xlsx
+++ b/lab-3/data/PDMS.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\momun\Documents\Course-Work\Flexible-Electronics\lab-3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72CAAA1F-E05B-427E-A48D-DCC89019C32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB3105B-82F8-4F33-963D-5F72A7C8FD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22276" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tmp2E0C" sheetId="1" r:id="rId1"/>
+    <sheet name="cleaned" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="120">
   <si>
     <t xml:space="preserve">Data: </t>
   </si>
@@ -360,11 +361,32 @@
   <si>
     <t>Y</t>
   </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>force</t>
+  </si>
+  <si>
+    <t>extension</t>
+  </si>
+  <si>
+    <t>strain</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>gap</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -902,10 +924,2082 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>force vs distance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tmp2E0C!$AE$115</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>tmp2E0C!$AD$116:$AD$307</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="192"/>
+                <c:pt idx="0">
+                  <c:v>3.589</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5960000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6339999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6739999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7029999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7519999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.794</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.835</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8759999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9159999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.9990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.0380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.077</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.1180000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.1559999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.194</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.2329999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.274</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.3029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.3520000000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.3949999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.4349999999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.476</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.5259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.5570000000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.6070000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.6360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.6840000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.7140000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.742</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.7889999999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.827</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.8680000000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.907</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.9470000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.9889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.03</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.0720000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.1130000000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.1559999999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.2080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.2370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.2670000000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.319</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.367</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.3959999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.4359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.4770000000000003</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.516</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.5670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.5979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.6390000000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.68</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.7190000000000003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.7610000000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.8019999999999996</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.84</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8789999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9189999999999996</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.9560000000000004</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.9930000000000003</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.0330000000000004</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.0730000000000004</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.1120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.1520000000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.1950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.2350000000000003</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.2759999999999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.3159999999999998</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.359</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.4390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.4779999999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.5190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.556</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.5949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.6340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.6749999999999998</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6.7140000000000004</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.7530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.7949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.8449999999999998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.875</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.9139999999999997</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.9550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6.9950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.032</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.0709999999999997</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.11</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.1470000000000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7.1840000000000002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.2130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7.2629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7.3019999999999996</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7.3419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7.3840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7.4260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7.4669999999999996</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7.5179999999999998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7.55</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>7.6029999999999998</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>7.633</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>7.673</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>7.7140000000000004</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>7.7530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>7.7919999999999998</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>7.8310000000000004</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>7.8719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>7.9020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>7.952</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>8.0039999999999996</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>8.0340000000000007</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>8.0739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>8.1150000000000002</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>8.1560000000000006</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>8.2070000000000007</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>8.2360000000000007</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>8.2750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>8.3149999999999995</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>8.3529999999999998</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>8.43</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>8.48</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>8.5090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>8.5589999999999993</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>8.5909999999999993</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>8.6319999999999997</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>8.6839999999999993</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>8.7140000000000004</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>8.7560000000000002</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>8.798</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>8.8369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>8.8770000000000007</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>8.9179999999999993</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>8.9559999999999995</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>9.0050000000000008</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>9.0350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>9.0749999999999993</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>9.125</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>9.1549999999999994</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>9.1969999999999992</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>9.2469999999999999</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>9.2780000000000005</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>9.3170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>9.359</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>9.3989999999999991</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>9.4369999999999994</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>9.4760000000000009</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>9.516</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>9.5530000000000008</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>9.59</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>9.6289999999999996</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>9.6690000000000005</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>9.7080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>9.7469999999999999</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>9.7989999999999995</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>9.8290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>9.8699999999999992</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>9.91</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>9.9420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>9.9939999999999998</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>10.032999999999999</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>10.073</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>10.114000000000001</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>10.151999999999999</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>10.191000000000001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>10.23</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>10.260999999999999</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>10.31</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>10.349</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>10.391</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>10.432</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>10.472</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>10.512</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>10.542999999999999</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>10.593999999999999</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>10.634</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>10.673</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>10.712999999999999</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>10.742000000000001</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>10.789</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>10.827999999999999</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>10.869</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>10.898</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>10.948</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>10.989000000000001</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>11.03</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>11.071</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>11.111000000000001</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>11.143000000000001</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>11.195</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>tmp2E0C!$AE$116:$AE$307</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="192"/>
+                <c:pt idx="0">
+                  <c:v>-5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.2999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.6999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.114</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.11899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.127</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.113</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.108</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.109</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.114</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.122</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.127</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.13300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.13800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.14599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.151</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.156</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.16200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.16700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.17399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.183</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.191</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.19500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.20699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.214</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.218</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.224</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.22800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.23400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.24099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.245</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.252</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.25800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.26200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.27400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.27900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.28399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.28899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.29399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.30399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.311</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.315</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.32600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.33600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.34100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.34699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.35199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.35799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.36099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.36599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.372</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.374</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.38200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.38600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.38800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.39500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.39800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.40300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.40899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.41599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.42099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.42299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.433</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.439</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.442</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.44700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.45200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.45500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.46100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.46600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.46800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.47099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.47499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.47799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.48299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.48699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.49399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.497</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.501</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.504</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.50600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.51300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.51800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.52100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.52500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.52700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.53200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.53500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.53800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.54100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.54500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.54800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.54900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.55100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.55400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.55600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.55700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.55800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.55800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.55900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.55300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.53800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.46200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.13200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-5.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-5.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-5.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-5.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-5.3999999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C136-4AA0-BCBF-19CAC873FA6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="429538208"/>
+        <c:axId val="427675168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="429538208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="427675168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="427675168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429538208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>154780</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>192880</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E79E3B6-11DE-DE2E-3D4C-0B8E4C6ABBF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -943,7 +3037,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1049,7 +3143,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1191,496 +3285,498 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE307"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="P110" workbookViewId="0">
+      <selection activeCell="AB279" sqref="AB279"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:31" x14ac:dyDescent="0.45">
       <c r="B114" t="s">
         <v>95</v>
       </c>
@@ -1727,7 +3823,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>110</v>
       </c>
@@ -1822,7 +3918,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>0</v>
       </c>
@@ -1869,7 +3965,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>1</v>
       </c>
@@ -1916,7 +4012,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>2</v>
       </c>
@@ -1963,7 +4059,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>3</v>
       </c>
@@ -2010,7 +4106,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>4</v>
       </c>
@@ -2057,7 +4153,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>5</v>
       </c>
@@ -2104,7 +4200,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>6</v>
       </c>
@@ -2151,7 +4247,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>7</v>
       </c>
@@ -2198,7 +4294,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>8</v>
       </c>
@@ -2245,7 +4341,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>9</v>
       </c>
@@ -2292,7 +4388,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>10</v>
       </c>
@@ -2339,7 +4435,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>11</v>
       </c>
@@ -2386,7 +4482,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>12</v>
       </c>
@@ -2433,7 +4529,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>13</v>
       </c>
@@ -2480,7 +4576,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>14</v>
       </c>
@@ -2527,7 +4623,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>15</v>
       </c>
@@ -2574,7 +4670,7 @@
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>16</v>
       </c>
@@ -2621,7 +4717,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>17</v>
       </c>
@@ -2668,7 +4764,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>18</v>
       </c>
@@ -2715,7 +4811,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>19</v>
       </c>
@@ -2762,7 +4858,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>20</v>
       </c>
@@ -2809,7 +4905,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>21</v>
       </c>
@@ -2856,7 +4952,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>22</v>
       </c>
@@ -2903,7 +4999,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="139" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>23</v>
       </c>
@@ -2950,7 +5046,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="140" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>24</v>
       </c>
@@ -2997,7 +5093,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="141" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>25</v>
       </c>
@@ -3044,7 +5140,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="142" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>26</v>
       </c>
@@ -3091,7 +5187,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="143" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>27</v>
       </c>
@@ -3138,7 +5234,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="144" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>28</v>
       </c>
@@ -3185,7 +5281,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="145" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>29</v>
       </c>
@@ -3232,7 +5328,7 @@
         <v>0.122</v>
       </c>
     </row>
-    <row r="146" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>30</v>
       </c>
@@ -3279,7 +5375,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="147" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>31</v>
       </c>
@@ -3326,7 +5422,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>32</v>
       </c>
@@ -3373,7 +5469,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>33</v>
       </c>
@@ -3420,7 +5516,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>34</v>
       </c>
@@ -3467,7 +5563,7 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="151" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>35</v>
       </c>
@@ -3514,7 +5610,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="152" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>36</v>
       </c>
@@ -3561,7 +5657,7 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>37</v>
       </c>
@@ -3608,7 +5704,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>38</v>
       </c>
@@ -3655,7 +5751,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>39</v>
       </c>
@@ -3702,7 +5798,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="156" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>40</v>
       </c>
@@ -3749,7 +5845,7 @@
         <v>0.183</v>
       </c>
     </row>
-    <row r="157" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>41</v>
       </c>
@@ -3796,7 +5892,7 @@
         <v>0.191</v>
       </c>
     </row>
-    <row r="158" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>42</v>
       </c>
@@ -3843,7 +5939,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>43</v>
       </c>
@@ -3890,7 +5986,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="160" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>44</v>
       </c>
@@ -3937,7 +6033,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>45</v>
       </c>
@@ -3984,7 +6080,7 @@
         <v>0.214</v>
       </c>
     </row>
-    <row r="162" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>46</v>
       </c>
@@ -4031,7 +6127,7 @@
         <v>0.218</v>
       </c>
     </row>
-    <row r="163" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>47</v>
       </c>
@@ -4078,7 +6174,7 @@
         <v>0.224</v>
       </c>
     </row>
-    <row r="164" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>48</v>
       </c>
@@ -4125,7 +6221,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>49</v>
       </c>
@@ -4172,7 +6268,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>50</v>
       </c>
@@ -4219,7 +6315,7 @@
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>51</v>
       </c>
@@ -4266,7 +6362,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="168" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>52</v>
       </c>
@@ -4313,7 +6409,7 @@
         <v>0.252</v>
       </c>
     </row>
-    <row r="169" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>53</v>
       </c>
@@ -4360,7 +6456,7 @@
         <v>0.25800000000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>54</v>
       </c>
@@ -4407,7 +6503,7 @@
         <v>0.26200000000000001</v>
       </c>
     </row>
-    <row r="171" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>55</v>
       </c>
@@ -4454,7 +6550,7 @@
         <v>0.26900000000000002</v>
       </c>
     </row>
-    <row r="172" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>56</v>
       </c>
@@ -4501,7 +6597,7 @@
         <v>0.27400000000000002</v>
       </c>
     </row>
-    <row r="173" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>57</v>
       </c>
@@ -4548,7 +6644,7 @@
         <v>0.27900000000000003</v>
       </c>
     </row>
-    <row r="174" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>58</v>
       </c>
@@ -4595,7 +6691,7 @@
         <v>0.28399999999999997</v>
       </c>
     </row>
-    <row r="175" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>59</v>
       </c>
@@ -4642,7 +6738,7 @@
         <v>0.28899999999999998</v>
       </c>
     </row>
-    <row r="176" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>60</v>
       </c>
@@ -4689,7 +6785,7 @@
         <v>0.29399999999999998</v>
       </c>
     </row>
-    <row r="177" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>61</v>
       </c>
@@ -4736,7 +6832,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="178" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>62</v>
       </c>
@@ -4783,7 +6879,7 @@
         <v>0.30399999999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>63</v>
       </c>
@@ -4830,7 +6926,7 @@
         <v>0.311</v>
       </c>
     </row>
-    <row r="180" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>64</v>
       </c>
@@ -4877,7 +6973,7 @@
         <v>0.315</v>
       </c>
     </row>
-    <row r="181" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>65</v>
       </c>
@@ -4924,7 +7020,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="182" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>66</v>
       </c>
@@ -4971,7 +7067,7 @@
         <v>0.32600000000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>67</v>
       </c>
@@ -5018,7 +7114,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="184" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>68</v>
       </c>
@@ -5065,7 +7161,7 @@
         <v>0.33600000000000002</v>
       </c>
     </row>
-    <row r="185" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>69</v>
       </c>
@@ -5112,7 +7208,7 @@
         <v>0.34100000000000003</v>
       </c>
     </row>
-    <row r="186" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>70</v>
       </c>
@@ -5159,7 +7255,7 @@
         <v>0.34699999999999998</v>
       </c>
     </row>
-    <row r="187" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>71</v>
       </c>
@@ -5206,7 +7302,7 @@
         <v>0.35199999999999998</v>
       </c>
     </row>
-    <row r="188" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>72</v>
       </c>
@@ -5253,7 +7349,7 @@
         <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="189" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>73</v>
       </c>
@@ -5300,7 +7396,7 @@
         <v>0.36099999999999999</v>
       </c>
     </row>
-    <row r="190" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>74</v>
       </c>
@@ -5347,7 +7443,7 @@
         <v>0.36599999999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>75</v>
       </c>
@@ -5394,7 +7490,7 @@
         <v>0.372</v>
       </c>
     </row>
-    <row r="192" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>76</v>
       </c>
@@ -5441,7 +7537,7 @@
         <v>0.374</v>
       </c>
     </row>
-    <row r="193" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>77</v>
       </c>
@@ -5488,7 +7584,7 @@
         <v>0.38200000000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>78</v>
       </c>
@@ -5535,7 +7631,7 @@
         <v>0.38600000000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>79</v>
       </c>
@@ -5582,7 +7678,7 @@
         <v>0.38800000000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>80</v>
       </c>
@@ -5629,7 +7725,7 @@
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="197" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>81</v>
       </c>
@@ -5676,7 +7772,7 @@
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="198" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>82</v>
       </c>
@@ -5723,7 +7819,7 @@
         <v>0.40300000000000002</v>
       </c>
     </row>
-    <row r="199" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>83</v>
       </c>
@@ -5770,7 +7866,7 @@
         <v>0.40899999999999997</v>
       </c>
     </row>
-    <row r="200" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>84</v>
       </c>
@@ -5817,7 +7913,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="201" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>85</v>
       </c>
@@ -5864,7 +7960,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="202" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>86</v>
       </c>
@@ -5911,7 +8007,7 @@
         <v>0.42099999999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>87</v>
       </c>
@@ -5958,7 +8054,7 @@
         <v>0.42299999999999999</v>
       </c>
     </row>
-    <row r="204" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>88</v>
       </c>
@@ -6005,7 +8101,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="205" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>89</v>
       </c>
@@ -6052,7 +8148,7 @@
         <v>0.433</v>
       </c>
     </row>
-    <row r="206" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>90</v>
       </c>
@@ -6099,7 +8195,7 @@
         <v>0.439</v>
       </c>
     </row>
-    <row r="207" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>91</v>
       </c>
@@ -6146,7 +8242,7 @@
         <v>0.442</v>
       </c>
     </row>
-    <row r="208" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>92</v>
       </c>
@@ -6193,7 +8289,7 @@
         <v>0.44700000000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>93</v>
       </c>
@@ -6240,7 +8336,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>94</v>
       </c>
@@ -6287,7 +8383,7 @@
         <v>0.45500000000000002</v>
       </c>
     </row>
-    <row r="211" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>95</v>
       </c>
@@ -6334,7 +8430,7 @@
         <v>0.46100000000000002</v>
       </c>
     </row>
-    <row r="212" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>96</v>
       </c>
@@ -6381,7 +8477,7 @@
         <v>0.46600000000000003</v>
       </c>
     </row>
-    <row r="213" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>97</v>
       </c>
@@ -6428,7 +8524,7 @@
         <v>0.46800000000000003</v>
       </c>
     </row>
-    <row r="214" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>98</v>
       </c>
@@ -6475,7 +8571,7 @@
         <v>0.47099999999999997</v>
       </c>
     </row>
-    <row r="215" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>99</v>
       </c>
@@ -6522,7 +8618,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="216" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>100</v>
       </c>
@@ -6569,7 +8665,7 @@
         <v>0.47799999999999998</v>
       </c>
     </row>
-    <row r="217" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>101</v>
       </c>
@@ -6616,7 +8712,7 @@
         <v>0.48299999999999998</v>
       </c>
     </row>
-    <row r="218" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>102</v>
       </c>
@@ -6663,7 +8759,7 @@
         <v>0.48699999999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>103</v>
       </c>
@@ -6710,7 +8806,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="220" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>104</v>
       </c>
@@ -6757,7 +8853,7 @@
         <v>0.49399999999999999</v>
       </c>
     </row>
-    <row r="221" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>105</v>
       </c>
@@ -6804,7 +8900,7 @@
         <v>0.497</v>
       </c>
     </row>
-    <row r="222" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>106</v>
       </c>
@@ -6851,7 +8947,7 @@
         <v>0.501</v>
       </c>
     </row>
-    <row r="223" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>107</v>
       </c>
@@ -6898,7 +8994,7 @@
         <v>0.504</v>
       </c>
     </row>
-    <row r="224" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>108</v>
       </c>
@@ -6945,7 +9041,7 @@
         <v>0.50600000000000001</v>
       </c>
     </row>
-    <row r="225" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>109</v>
       </c>
@@ -6992,7 +9088,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="226" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>110</v>
       </c>
@@ -7039,7 +9135,7 @@
         <v>0.51300000000000001</v>
       </c>
     </row>
-    <row r="227" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>111</v>
       </c>
@@ -7086,7 +9182,7 @@
         <v>0.51800000000000002</v>
       </c>
     </row>
-    <row r="228" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>112</v>
       </c>
@@ -7133,7 +9229,7 @@
         <v>0.52100000000000002</v>
       </c>
     </row>
-    <row r="229" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>113</v>
       </c>
@@ -7180,7 +9276,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="230" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>114</v>
       </c>
@@ -7227,7 +9323,7 @@
         <v>0.52700000000000002</v>
       </c>
     </row>
-    <row r="231" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>115</v>
       </c>
@@ -7274,7 +9370,7 @@
         <v>0.53200000000000003</v>
       </c>
     </row>
-    <row r="232" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>116</v>
       </c>
@@ -7321,7 +9417,7 @@
         <v>0.53500000000000003</v>
       </c>
     </row>
-    <row r="233" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>117</v>
       </c>
@@ -7368,7 +9464,7 @@
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="234" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>118</v>
       </c>
@@ -7415,7 +9511,7 @@
         <v>0.54100000000000004</v>
       </c>
     </row>
-    <row r="235" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>119</v>
       </c>
@@ -7462,7 +9558,7 @@
         <v>0.54500000000000004</v>
       </c>
     </row>
-    <row r="236" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>120</v>
       </c>
@@ -7509,7 +9605,7 @@
         <v>0.54800000000000004</v>
       </c>
     </row>
-    <row r="237" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>121</v>
       </c>
@@ -7556,7 +9652,7 @@
         <v>0.54900000000000004</v>
       </c>
     </row>
-    <row r="238" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>122</v>
       </c>
@@ -7603,7 +9699,7 @@
         <v>0.55100000000000005</v>
       </c>
     </row>
-    <row r="239" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>123</v>
       </c>
@@ -7650,7 +9746,7 @@
         <v>0.55400000000000005</v>
       </c>
     </row>
-    <row r="240" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>124</v>
       </c>
@@ -7697,7 +9793,7 @@
         <v>0.55600000000000005</v>
       </c>
     </row>
-    <row r="241" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>125</v>
       </c>
@@ -7744,7 +9840,7 @@
         <v>0.55700000000000005</v>
       </c>
     </row>
-    <row r="242" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>126</v>
       </c>
@@ -7791,7 +9887,7 @@
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="243" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>127</v>
       </c>
@@ -7838,7 +9934,7 @@
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="244" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>128</v>
       </c>
@@ -7885,7 +9981,7 @@
         <v>0.55900000000000005</v>
       </c>
     </row>
-    <row r="245" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>129</v>
       </c>
@@ -7932,7 +10028,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="246" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>130</v>
       </c>
@@ -7979,7 +10075,7 @@
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="247" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>131</v>
       </c>
@@ -8026,7 +10122,7 @@
         <v>0.46200000000000002</v>
       </c>
     </row>
-    <row r="248" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>132</v>
       </c>
@@ -8073,7 +10169,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>133</v>
       </c>
@@ -8120,7 +10216,7 @@
         <v>-2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>134</v>
       </c>
@@ -8167,7 +10263,7 @@
         <v>-4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>135</v>
       </c>
@@ -8214,7 +10310,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="252" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>136</v>
       </c>
@@ -8261,7 +10357,7 @@
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>137</v>
       </c>
@@ -8308,7 +10404,7 @@
         <v>-5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>138</v>
       </c>
@@ -8355,7 +10451,7 @@
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>139</v>
       </c>
@@ -8402,7 +10498,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>140</v>
       </c>
@@ -8449,7 +10545,7 @@
         <v>-5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>141</v>
       </c>
@@ -8496,7 +10592,7 @@
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>142</v>
       </c>
@@ -8543,7 +10639,7 @@
         <v>-5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>143</v>
       </c>
@@ -8590,7 +10686,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>144</v>
       </c>
@@ -8637,7 +10733,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>145</v>
       </c>
@@ -8684,7 +10780,7 @@
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>146</v>
       </c>
@@ -8731,7 +10827,7 @@
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>147</v>
       </c>
@@ -8778,7 +10874,7 @@
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>148</v>
       </c>
@@ -8825,7 +10921,7 @@
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>149</v>
       </c>
@@ -8872,7 +10968,7 @@
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>150</v>
       </c>
@@ -8919,7 +11015,7 @@
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>151</v>
       </c>
@@ -8966,7 +11062,7 @@
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>152</v>
       </c>
@@ -9013,7 +11109,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>153</v>
       </c>
@@ -9060,7 +11156,7 @@
         <v>-5.5E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>154</v>
       </c>
@@ -9107,7 +11203,7 @@
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>155</v>
       </c>
@@ -9154,7 +11250,7 @@
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>156</v>
       </c>
@@ -9201,7 +11297,7 @@
         <v>-5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>157</v>
       </c>
@@ -9248,7 +11344,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>158</v>
       </c>
@@ -9295,7 +11391,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>159</v>
       </c>
@@ -9342,7 +11438,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>160</v>
       </c>
@@ -9389,7 +11485,7 @@
         <v>-5.5E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>161</v>
       </c>
@@ -9436,7 +11532,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>162</v>
       </c>
@@ -9483,7 +11579,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>163</v>
       </c>
@@ -9530,7 +11626,7 @@
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>164</v>
       </c>
@@ -9577,7 +11673,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>165</v>
       </c>
@@ -9624,7 +11720,7 @@
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>166</v>
       </c>
@@ -9671,7 +11767,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>167</v>
       </c>
@@ -9718,7 +11814,7 @@
         <v>-5.5E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>168</v>
       </c>
@@ -9765,7 +11861,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>169</v>
       </c>
@@ -9812,7 +11908,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>170</v>
       </c>
@@ -9859,7 +11955,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>171</v>
       </c>
@@ -9906,7 +12002,7 @@
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>172</v>
       </c>
@@ -9953,7 +12049,7 @@
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>173</v>
       </c>
@@ -10000,7 +12096,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>174</v>
       </c>
@@ -10047,7 +12143,7 @@
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>175</v>
       </c>
@@ -10094,7 +12190,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>176</v>
       </c>
@@ -10141,7 +12237,7 @@
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>177</v>
       </c>
@@ -10188,7 +12284,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>178</v>
       </c>
@@ -10235,7 +12331,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="295" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>179</v>
       </c>
@@ -10282,7 +12378,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A296">
         <v>180</v>
       </c>
@@ -10329,7 +12425,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>181</v>
       </c>
@@ -10376,7 +12472,7 @@
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="298" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>182</v>
       </c>
@@ -10423,7 +12519,7 @@
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="299" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>183</v>
       </c>
@@ -10470,7 +12566,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>184</v>
       </c>
@@ -10517,7 +12613,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>185</v>
       </c>
@@ -10564,7 +12660,7 @@
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>186</v>
       </c>
@@ -10611,7 +12707,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="303" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>187</v>
       </c>
@@ -10658,7 +12754,7 @@
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A304">
         <v>188</v>
       </c>
@@ -10705,7 +12801,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A305">
         <v>189</v>
       </c>
@@ -10752,7 +12848,7 @@
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A306">
         <v>190</v>
       </c>
@@ -10799,7 +12895,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>191</v>
       </c>
@@ -10844,6 +12940,4461 @@
       </c>
       <c r="AE307">
         <v>-5.3999999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E575EE-D577-463B-93CA-E75487635EE4}">
+  <dimension ref="A1:G193"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="B2">
+        <v>25.129000000000001</v>
+      </c>
+      <c r="C2">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="D2">
+        <v>3.5886999999999998</v>
+      </c>
+      <c r="E2">
+        <v>4.632E-2</v>
+      </c>
+      <c r="F2">
+        <v>-4.7600000000000003E-3</v>
+      </c>
+      <c r="G2">
+        <v>18.588699999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="B3">
+        <v>25.129000000000001</v>
+      </c>
+      <c r="C3">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="D3">
+        <v>3.5962999999999998</v>
+      </c>
+      <c r="E3">
+        <v>4.0999999999999999E-4</v>
+      </c>
+      <c r="F3">
+        <v>-4.6299999999999996E-3</v>
+      </c>
+      <c r="G3">
+        <v>18.596299999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="B4">
+        <v>25.129000000000001</v>
+      </c>
+      <c r="C4">
+        <v>-2E-3</v>
+      </c>
+      <c r="D4">
+        <v>3.6337999999999999</v>
+      </c>
+      <c r="E4">
+        <v>2.4299999999999999E-3</v>
+      </c>
+      <c r="F4">
+        <v>-1.5E-3</v>
+      </c>
+      <c r="G4">
+        <v>18.633800000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="B5">
+        <v>25.128</v>
+      </c>
+      <c r="C5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D5">
+        <v>3.6737000000000002</v>
+      </c>
+      <c r="E5">
+        <v>4.5700000000000003E-3</v>
+      </c>
+      <c r="F5">
+        <v>3.8800000000000002E-3</v>
+      </c>
+      <c r="G5">
+        <v>18.6737</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>0.995</v>
+      </c>
+      <c r="B6">
+        <v>25.128</v>
+      </c>
+      <c r="C6">
+        <v>0.01</v>
+      </c>
+      <c r="D6">
+        <v>3.7027000000000001</v>
+      </c>
+      <c r="E6">
+        <v>6.13E-3</v>
+      </c>
+      <c r="F6">
+        <v>1.0330000000000001E-2</v>
+      </c>
+      <c r="G6">
+        <v>18.7027</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>1.194</v>
+      </c>
+      <c r="B7">
+        <v>25.126999999999999</v>
+      </c>
+      <c r="C7">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D7">
+        <v>3.7523</v>
+      </c>
+      <c r="E7">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="F7">
+        <v>1.7909999999999999E-2</v>
+      </c>
+      <c r="G7">
+        <v>18.752300000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>1.393</v>
+      </c>
+      <c r="B8">
+        <v>25.128</v>
+      </c>
+      <c r="C8">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D8">
+        <v>3.7944</v>
+      </c>
+      <c r="E8">
+        <v>1.106E-2</v>
+      </c>
+      <c r="F8">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="G8">
+        <v>18.7944</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>1.5920000000000001</v>
+      </c>
+      <c r="B9">
+        <v>25.126999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.03</v>
+      </c>
+      <c r="D9">
+        <v>3.8348</v>
+      </c>
+      <c r="E9">
+        <v>1.324E-2</v>
+      </c>
+      <c r="F9">
+        <v>3.0450000000000001E-2</v>
+      </c>
+      <c r="G9">
+        <v>18.834800000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>1.7909999999999999</v>
+      </c>
+      <c r="B10">
+        <v>25.126999999999999</v>
+      </c>
+      <c r="C10">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D10">
+        <v>3.8759999999999999</v>
+      </c>
+      <c r="E10">
+        <v>1.546E-2</v>
+      </c>
+      <c r="F10">
+        <v>3.576E-2</v>
+      </c>
+      <c r="G10">
+        <v>18.876100000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>1.99</v>
+      </c>
+      <c r="B11">
+        <v>25.126000000000001</v>
+      </c>
+      <c r="C11">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D11">
+        <v>3.9157999999999999</v>
+      </c>
+      <c r="E11">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="F11">
+        <v>4.2680000000000003E-2</v>
+      </c>
+      <c r="G11">
+        <v>18.915800000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>2.1890000000000001</v>
+      </c>
+      <c r="B12">
+        <v>25.126000000000001</v>
+      </c>
+      <c r="C12">
+        <v>0.05</v>
+      </c>
+      <c r="D12">
+        <v>3.9581</v>
+      </c>
+      <c r="E12">
+        <v>1.9869999999999999E-2</v>
+      </c>
+      <c r="F12">
+        <v>4.9549999999999997E-2</v>
+      </c>
+      <c r="G12">
+        <v>18.958100000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>2.3879999999999999</v>
+      </c>
+      <c r="B13">
+        <v>25.126000000000001</v>
+      </c>
+      <c r="C13">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D13">
+        <v>3.9990000000000001</v>
+      </c>
+      <c r="E13">
+        <v>2.2069999999999999E-2</v>
+      </c>
+      <c r="F13">
+        <v>5.3679999999999999E-2</v>
+      </c>
+      <c r="G13">
+        <v>18.998899999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>2.5870000000000002</v>
+      </c>
+      <c r="B14">
+        <v>25.125</v>
+      </c>
+      <c r="C14">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D14">
+        <v>4.0378999999999996</v>
+      </c>
+      <c r="E14">
+        <v>2.4160000000000001E-2</v>
+      </c>
+      <c r="F14">
+        <v>6.1920000000000003E-2</v>
+      </c>
+      <c r="G14">
+        <v>19.0379</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>2.786</v>
+      </c>
+      <c r="B15">
+        <v>25.125</v>
+      </c>
+      <c r="C15">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D15">
+        <v>4.0773000000000001</v>
+      </c>
+      <c r="E15">
+        <v>2.6280000000000001E-2</v>
+      </c>
+      <c r="F15">
+        <v>6.7530000000000007E-2</v>
+      </c>
+      <c r="G15">
+        <v>19.077300000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>2.9849999999999999</v>
+      </c>
+      <c r="B16">
+        <v>25.125</v>
+      </c>
+      <c r="C16">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D16">
+        <v>4.1177999999999999</v>
+      </c>
+      <c r="E16">
+        <v>2.8459999999999999E-2</v>
+      </c>
+      <c r="F16">
+        <v>7.2989999999999999E-2</v>
+      </c>
+      <c r="G16">
+        <v>19.117799999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>3.1840000000000002</v>
+      </c>
+      <c r="B17">
+        <v>25.125</v>
+      </c>
+      <c r="C17">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="D17">
+        <v>4.1555</v>
+      </c>
+      <c r="E17">
+        <v>3.049E-2</v>
+      </c>
+      <c r="F17">
+        <v>8.1750000000000003E-2</v>
+      </c>
+      <c r="G17">
+        <v>19.1555</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>3.383</v>
+      </c>
+      <c r="B18">
+        <v>25.123999999999999</v>
+      </c>
+      <c r="C18">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="D18">
+        <v>4.1939000000000002</v>
+      </c>
+      <c r="E18">
+        <v>3.2559999999999999E-2</v>
+      </c>
+      <c r="F18">
+        <v>8.6889999999999995E-2</v>
+      </c>
+      <c r="G18">
+        <v>19.193899999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>3.5819999999999999</v>
+      </c>
+      <c r="B19">
+        <v>25.123999999999999</v>
+      </c>
+      <c r="C19">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D19">
+        <v>4.2332000000000001</v>
+      </c>
+      <c r="E19">
+        <v>3.4669999999999999E-2</v>
+      </c>
+      <c r="F19">
+        <v>9.536E-2</v>
+      </c>
+      <c r="G19">
+        <v>19.2332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>3.7810000000000001</v>
+      </c>
+      <c r="B20">
+        <v>25.123999999999999</v>
+      </c>
+      <c r="C20">
+        <v>0.1</v>
+      </c>
+      <c r="D20">
+        <v>4.2736999999999998</v>
+      </c>
+      <c r="E20">
+        <v>3.6850000000000001E-2</v>
+      </c>
+      <c r="F20">
+        <v>9.9709999999999993E-2</v>
+      </c>
+      <c r="G20">
+        <v>19.273700000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>3.98</v>
+      </c>
+      <c r="B21">
+        <v>25.123000000000001</v>
+      </c>
+      <c r="C21">
+        <v>0.105</v>
+      </c>
+      <c r="D21">
+        <v>4.3030999999999997</v>
+      </c>
+      <c r="E21">
+        <v>3.8429999999999999E-2</v>
+      </c>
+      <c r="F21">
+        <v>0.10514999999999999</v>
+      </c>
+      <c r="G21">
+        <v>19.303100000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>4.1790000000000003</v>
+      </c>
+      <c r="B22">
+        <v>25.123000000000001</v>
+      </c>
+      <c r="C22">
+        <v>0.114</v>
+      </c>
+      <c r="D22">
+        <v>4.3525</v>
+      </c>
+      <c r="E22">
+        <v>4.1090000000000002E-2</v>
+      </c>
+      <c r="F22">
+        <v>0.11416</v>
+      </c>
+      <c r="G22">
+        <v>19.352499999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>4.3780000000000001</v>
+      </c>
+      <c r="B23">
+        <v>25.123000000000001</v>
+      </c>
+      <c r="C23">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="D23">
+        <v>4.3947000000000003</v>
+      </c>
+      <c r="E23">
+        <v>4.3360000000000003E-2</v>
+      </c>
+      <c r="F23">
+        <v>0.11877</v>
+      </c>
+      <c r="G23">
+        <v>19.3947</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>4.577</v>
+      </c>
+      <c r="B24">
+        <v>25.122</v>
+      </c>
+      <c r="C24">
+        <v>0.127</v>
+      </c>
+      <c r="D24">
+        <v>4.4353999999999996</v>
+      </c>
+      <c r="E24">
+        <v>4.555E-2</v>
+      </c>
+      <c r="F24">
+        <v>0.12659000000000001</v>
+      </c>
+      <c r="G24">
+        <v>19.435400000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>4.7759999999999998</v>
+      </c>
+      <c r="B25">
+        <v>25.122</v>
+      </c>
+      <c r="C25">
+        <v>0.113</v>
+      </c>
+      <c r="D25">
+        <v>4.4757999999999996</v>
+      </c>
+      <c r="E25">
+        <v>4.7719999999999999E-2</v>
+      </c>
+      <c r="F25">
+        <v>0.11321000000000001</v>
+      </c>
+      <c r="G25">
+        <v>19.4758</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>4.9749999999999996</v>
+      </c>
+      <c r="B26">
+        <v>25.122</v>
+      </c>
+      <c r="C26">
+        <v>0.108</v>
+      </c>
+      <c r="D26">
+        <v>4.5255999999999998</v>
+      </c>
+      <c r="E26">
+        <v>5.04E-2</v>
+      </c>
+      <c r="F26">
+        <v>0.10826</v>
+      </c>
+      <c r="G26">
+        <v>19.525600000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>5.1740000000000004</v>
+      </c>
+      <c r="B27">
+        <v>25.122</v>
+      </c>
+      <c r="C27">
+        <v>0.109</v>
+      </c>
+      <c r="D27">
+        <v>4.5570000000000004</v>
+      </c>
+      <c r="E27">
+        <v>5.2089999999999997E-2</v>
+      </c>
+      <c r="F27">
+        <v>0.10867</v>
+      </c>
+      <c r="G27">
+        <v>19.556999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>5.3730000000000002</v>
+      </c>
+      <c r="B28">
+        <v>25.120999999999999</v>
+      </c>
+      <c r="C28">
+        <v>0.11</v>
+      </c>
+      <c r="D28">
+        <v>4.6071999999999997</v>
+      </c>
+      <c r="E28">
+        <v>5.4789999999999998E-2</v>
+      </c>
+      <c r="F28">
+        <v>0.10983999999999999</v>
+      </c>
+      <c r="G28">
+        <v>19.607199999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>5.5720000000000001</v>
+      </c>
+      <c r="B29">
+        <v>25.120999999999999</v>
+      </c>
+      <c r="C29">
+        <v>0.114</v>
+      </c>
+      <c r="D29">
+        <v>4.6356000000000002</v>
+      </c>
+      <c r="E29">
+        <v>5.6320000000000002E-2</v>
+      </c>
+      <c r="F29">
+        <v>0.11393</v>
+      </c>
+      <c r="G29">
+        <v>19.6356</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>5.7709999999999999</v>
+      </c>
+      <c r="B30">
+        <v>25.120999999999999</v>
+      </c>
+      <c r="C30">
+        <v>0.12</v>
+      </c>
+      <c r="D30">
+        <v>4.6844000000000001</v>
+      </c>
+      <c r="E30">
+        <v>5.8939999999999999E-2</v>
+      </c>
+      <c r="F30">
+        <v>0.11952</v>
+      </c>
+      <c r="G30">
+        <v>19.6844</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>5.97</v>
+      </c>
+      <c r="B31">
+        <v>25.12</v>
+      </c>
+      <c r="C31">
+        <v>0.122</v>
+      </c>
+      <c r="D31">
+        <v>4.7140000000000004</v>
+      </c>
+      <c r="E31">
+        <v>6.0539999999999997E-2</v>
+      </c>
+      <c r="F31">
+        <v>0.12229</v>
+      </c>
+      <c r="G31">
+        <v>19.713999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>6.1689999999999996</v>
+      </c>
+      <c r="B32">
+        <v>25.120999999999999</v>
+      </c>
+      <c r="C32">
+        <v>0.127</v>
+      </c>
+      <c r="D32">
+        <v>4.7419000000000002</v>
+      </c>
+      <c r="E32">
+        <v>6.2039999999999998E-2</v>
+      </c>
+      <c r="F32">
+        <v>0.12656999999999999</v>
+      </c>
+      <c r="G32">
+        <v>19.741900000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>6.3680000000000003</v>
+      </c>
+      <c r="B33">
+        <v>25.12</v>
+      </c>
+      <c r="C33">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="D33">
+        <v>4.7885999999999997</v>
+      </c>
+      <c r="E33">
+        <v>6.4549999999999996E-2</v>
+      </c>
+      <c r="F33">
+        <v>0.13317999999999999</v>
+      </c>
+      <c r="G33">
+        <v>19.788599999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>6.5670000000000002</v>
+      </c>
+      <c r="B34">
+        <v>25.12</v>
+      </c>
+      <c r="C34">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="D34">
+        <v>4.8274999999999997</v>
+      </c>
+      <c r="E34">
+        <v>6.6640000000000005E-2</v>
+      </c>
+      <c r="F34">
+        <v>0.13800999999999999</v>
+      </c>
+      <c r="G34">
+        <v>19.827500000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>6.766</v>
+      </c>
+      <c r="B35">
+        <v>25.119</v>
+      </c>
+      <c r="C35">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="D35">
+        <v>4.8677000000000001</v>
+      </c>
+      <c r="E35">
+        <v>6.88E-2</v>
+      </c>
+      <c r="F35">
+        <v>0.14568999999999999</v>
+      </c>
+      <c r="G35">
+        <v>19.867699999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>6.9649999999999999</v>
+      </c>
+      <c r="B36">
+        <v>25.119</v>
+      </c>
+      <c r="C36">
+        <v>0.151</v>
+      </c>
+      <c r="D36">
+        <v>4.9069000000000003</v>
+      </c>
+      <c r="E36">
+        <v>7.0910000000000001E-2</v>
+      </c>
+      <c r="F36">
+        <v>0.15051</v>
+      </c>
+      <c r="G36">
+        <v>19.9069</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>7.1639999999999997</v>
+      </c>
+      <c r="B37">
+        <v>25.119</v>
+      </c>
+      <c r="C37">
+        <v>0.156</v>
+      </c>
+      <c r="D37">
+        <v>4.9471999999999996</v>
+      </c>
+      <c r="E37">
+        <v>7.3080000000000006E-2</v>
+      </c>
+      <c r="F37">
+        <v>0.15606999999999999</v>
+      </c>
+      <c r="G37">
+        <v>19.947199999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>7.3630000000000004</v>
+      </c>
+      <c r="B38">
+        <v>25.119</v>
+      </c>
+      <c r="C38">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="D38">
+        <v>4.9893000000000001</v>
+      </c>
+      <c r="E38">
+        <v>7.5340000000000004E-2</v>
+      </c>
+      <c r="F38">
+        <v>0.16178000000000001</v>
+      </c>
+      <c r="G38">
+        <v>19.9893</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>7.5620000000000003</v>
+      </c>
+      <c r="B39">
+        <v>25.117999999999999</v>
+      </c>
+      <c r="C39">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="D39">
+        <v>5.0301</v>
+      </c>
+      <c r="E39">
+        <v>7.7539999999999998E-2</v>
+      </c>
+      <c r="F39">
+        <v>0.16705</v>
+      </c>
+      <c r="G39">
+        <v>20.030100000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>7.7610000000000001</v>
+      </c>
+      <c r="B40">
+        <v>25.117999999999999</v>
+      </c>
+      <c r="C40">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="D40">
+        <v>5.0720000000000001</v>
+      </c>
+      <c r="E40">
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="F40">
+        <v>0.17393</v>
+      </c>
+      <c r="G40">
+        <v>20.071999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>7.96</v>
+      </c>
+      <c r="B41">
+        <v>25.117999999999999</v>
+      </c>
+      <c r="C41">
+        <v>0.18</v>
+      </c>
+      <c r="D41">
+        <v>5.1128</v>
+      </c>
+      <c r="E41">
+        <v>8.1989999999999993E-2</v>
+      </c>
+      <c r="F41">
+        <v>0.1799</v>
+      </c>
+      <c r="G41">
+        <v>20.1128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>8.1590000000000007</v>
+      </c>
+      <c r="B42">
+        <v>25.117999999999999</v>
+      </c>
+      <c r="C42">
+        <v>0.183</v>
+      </c>
+      <c r="D42">
+        <v>5.1557000000000004</v>
+      </c>
+      <c r="E42">
+        <v>8.43E-2</v>
+      </c>
+      <c r="F42">
+        <v>0.18335000000000001</v>
+      </c>
+      <c r="G42">
+        <v>20.1557</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>8.3580000000000005</v>
+      </c>
+      <c r="B43">
+        <v>25.117000000000001</v>
+      </c>
+      <c r="C43">
+        <v>0.191</v>
+      </c>
+      <c r="D43">
+        <v>5.2074999999999996</v>
+      </c>
+      <c r="E43">
+        <v>8.7090000000000001E-2</v>
+      </c>
+      <c r="F43">
+        <v>0.19062000000000001</v>
+      </c>
+      <c r="G43">
+        <v>20.2075</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>8.5570000000000004</v>
+      </c>
+      <c r="B44">
+        <v>25.117000000000001</v>
+      </c>
+      <c r="C44">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="D44">
+        <v>5.2373000000000003</v>
+      </c>
+      <c r="E44">
+        <v>8.8690000000000005E-2</v>
+      </c>
+      <c r="F44">
+        <v>0.19475999999999999</v>
+      </c>
+      <c r="G44">
+        <v>20.237300000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>8.7560000000000002</v>
+      </c>
+      <c r="B45">
+        <v>25.117000000000001</v>
+      </c>
+      <c r="C45">
+        <v>0.2</v>
+      </c>
+      <c r="D45">
+        <v>5.2671999999999999</v>
+      </c>
+      <c r="E45">
+        <v>9.0300000000000005E-2</v>
+      </c>
+      <c r="F45">
+        <v>0.20004</v>
+      </c>
+      <c r="G45">
+        <v>20.267199999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>8.9550000000000001</v>
+      </c>
+      <c r="B46">
+        <v>25.117000000000001</v>
+      </c>
+      <c r="C46">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="D46">
+        <v>5.3186999999999998</v>
+      </c>
+      <c r="E46">
+        <v>9.307E-2</v>
+      </c>
+      <c r="F46">
+        <v>0.20658000000000001</v>
+      </c>
+      <c r="G46">
+        <v>20.3187</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>9.1539999999999999</v>
+      </c>
+      <c r="B47">
+        <v>25.116</v>
+      </c>
+      <c r="C47">
+        <v>0.214</v>
+      </c>
+      <c r="D47">
+        <v>5.367</v>
+      </c>
+      <c r="E47">
+        <v>9.5659999999999995E-2</v>
+      </c>
+      <c r="F47">
+        <v>0.21432999999999999</v>
+      </c>
+      <c r="G47">
+        <v>20.367000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>9.3529999999999998</v>
+      </c>
+      <c r="B48">
+        <v>25.116</v>
+      </c>
+      <c r="C48">
+        <v>0.218</v>
+      </c>
+      <c r="D48">
+        <v>5.3959999999999999</v>
+      </c>
+      <c r="E48">
+        <v>9.7229999999999997E-2</v>
+      </c>
+      <c r="F48">
+        <v>0.21837999999999999</v>
+      </c>
+      <c r="G48">
+        <v>20.396000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>9.5519999999999996</v>
+      </c>
+      <c r="B49">
+        <v>25.116</v>
+      </c>
+      <c r="C49">
+        <v>0.224</v>
+      </c>
+      <c r="D49">
+        <v>5.4359999999999999</v>
+      </c>
+      <c r="E49">
+        <v>9.9379999999999996E-2</v>
+      </c>
+      <c r="F49">
+        <v>0.22378000000000001</v>
+      </c>
+      <c r="G49">
+        <v>20.436</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>9.7509999999999994</v>
+      </c>
+      <c r="B50">
+        <v>25.114999999999998</v>
+      </c>
+      <c r="C50">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="D50">
+        <v>5.4767999999999999</v>
+      </c>
+      <c r="E50">
+        <v>0.10156999999999999</v>
+      </c>
+      <c r="F50">
+        <v>0.2278</v>
+      </c>
+      <c r="G50">
+        <v>20.476800000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="B51">
+        <v>25.116</v>
+      </c>
+      <c r="C51">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="D51">
+        <v>5.5162000000000004</v>
+      </c>
+      <c r="E51">
+        <v>0.10369</v>
+      </c>
+      <c r="F51">
+        <v>0.23408999999999999</v>
+      </c>
+      <c r="G51">
+        <v>20.516200000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>10.148999999999999</v>
+      </c>
+      <c r="B52">
+        <v>25.114999999999998</v>
+      </c>
+      <c r="C52">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="D52">
+        <v>5.5666000000000002</v>
+      </c>
+      <c r="E52">
+        <v>0.10639999999999999</v>
+      </c>
+      <c r="F52">
+        <v>0.24135000000000001</v>
+      </c>
+      <c r="G52">
+        <v>20.566600000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>10.348000000000001</v>
+      </c>
+      <c r="B53">
+        <v>25.114999999999998</v>
+      </c>
+      <c r="C53">
+        <v>0.245</v>
+      </c>
+      <c r="D53">
+        <v>5.5983000000000001</v>
+      </c>
+      <c r="E53">
+        <v>0.10811</v>
+      </c>
+      <c r="F53">
+        <v>0.24510999999999999</v>
+      </c>
+      <c r="G53">
+        <v>20.598299999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>10.547000000000001</v>
+      </c>
+      <c r="B54">
+        <v>25.114999999999998</v>
+      </c>
+      <c r="C54">
+        <v>0.252</v>
+      </c>
+      <c r="D54">
+        <v>5.6388999999999996</v>
+      </c>
+      <c r="E54">
+        <v>0.11029</v>
+      </c>
+      <c r="F54">
+        <v>0.25236999999999998</v>
+      </c>
+      <c r="G54">
+        <v>20.6389</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>10.746</v>
+      </c>
+      <c r="B55">
+        <v>25.114999999999998</v>
+      </c>
+      <c r="C55">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="D55">
+        <v>5.6798999999999999</v>
+      </c>
+      <c r="E55">
+        <v>0.1125</v>
+      </c>
+      <c r="F55">
+        <v>0.25777</v>
+      </c>
+      <c r="G55">
+        <v>20.6799</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>10.945</v>
+      </c>
+      <c r="B56">
+        <v>25.114000000000001</v>
+      </c>
+      <c r="C56">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="D56">
+        <v>5.7195</v>
+      </c>
+      <c r="E56">
+        <v>0.11463</v>
+      </c>
+      <c r="F56">
+        <v>0.26244000000000001</v>
+      </c>
+      <c r="G56">
+        <v>20.7195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>11.144</v>
+      </c>
+      <c r="B57">
+        <v>25.114000000000001</v>
+      </c>
+      <c r="C57">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="D57">
+        <v>5.7611999999999997</v>
+      </c>
+      <c r="E57">
+        <v>0.11687</v>
+      </c>
+      <c r="F57">
+        <v>0.26934999999999998</v>
+      </c>
+      <c r="G57">
+        <v>20.761199999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>11.343</v>
+      </c>
+      <c r="B58">
+        <v>25.114000000000001</v>
+      </c>
+      <c r="C58">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="D58">
+        <v>5.8014999999999999</v>
+      </c>
+      <c r="E58">
+        <v>0.11904000000000001</v>
+      </c>
+      <c r="F58">
+        <v>0.27399000000000001</v>
+      </c>
+      <c r="G58">
+        <v>20.801500000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>11.542</v>
+      </c>
+      <c r="B59">
+        <v>25.113</v>
+      </c>
+      <c r="C59">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="D59">
+        <v>5.84</v>
+      </c>
+      <c r="E59">
+        <v>0.12111</v>
+      </c>
+      <c r="F59">
+        <v>0.2787</v>
+      </c>
+      <c r="G59">
+        <v>20.84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>11.741</v>
+      </c>
+      <c r="B60">
+        <v>25.113</v>
+      </c>
+      <c r="C60">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="D60">
+        <v>5.8789999999999996</v>
+      </c>
+      <c r="E60">
+        <v>0.12321</v>
+      </c>
+      <c r="F60">
+        <v>0.28410000000000002</v>
+      </c>
+      <c r="G60">
+        <v>20.879000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>11.94</v>
+      </c>
+      <c r="B61">
+        <v>25.113</v>
+      </c>
+      <c r="C61">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="D61">
+        <v>5.9185999999999996</v>
+      </c>
+      <c r="E61">
+        <v>0.12534000000000001</v>
+      </c>
+      <c r="F61">
+        <v>0.28850999999999999</v>
+      </c>
+      <c r="G61">
+        <v>20.918600000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>12.138999999999999</v>
+      </c>
+      <c r="B62">
+        <v>25.113</v>
+      </c>
+      <c r="C62">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="D62">
+        <v>5.9557000000000002</v>
+      </c>
+      <c r="E62">
+        <v>0.12733</v>
+      </c>
+      <c r="F62">
+        <v>0.29404000000000002</v>
+      </c>
+      <c r="G62">
+        <v>20.9557</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>12.337999999999999</v>
+      </c>
+      <c r="B63">
+        <v>25.111999999999998</v>
+      </c>
+      <c r="C63">
+        <v>0.3</v>
+      </c>
+      <c r="D63">
+        <v>5.9932999999999996</v>
+      </c>
+      <c r="E63">
+        <v>0.12934999999999999</v>
+      </c>
+      <c r="F63">
+        <v>0.29994999999999999</v>
+      </c>
+      <c r="G63">
+        <v>20.993300000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>12.537000000000001</v>
+      </c>
+      <c r="B64">
+        <v>25.111999999999998</v>
+      </c>
+      <c r="C64">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="D64">
+        <v>6.0326000000000004</v>
+      </c>
+      <c r="E64">
+        <v>0.13147</v>
+      </c>
+      <c r="F64">
+        <v>0.30368000000000001</v>
+      </c>
+      <c r="G64">
+        <v>21.032599999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>12.736000000000001</v>
+      </c>
+      <c r="B65">
+        <v>25.111999999999998</v>
+      </c>
+      <c r="C65">
+        <v>0.311</v>
+      </c>
+      <c r="D65">
+        <v>6.0728</v>
+      </c>
+      <c r="E65">
+        <v>0.13363</v>
+      </c>
+      <c r="F65">
+        <v>0.31087999999999999</v>
+      </c>
+      <c r="G65">
+        <v>21.072800000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>12.935</v>
+      </c>
+      <c r="B66">
+        <v>25.111000000000001</v>
+      </c>
+      <c r="C66">
+        <v>0.315</v>
+      </c>
+      <c r="D66">
+        <v>6.1120999999999999</v>
+      </c>
+      <c r="E66">
+        <v>0.13575000000000001</v>
+      </c>
+      <c r="F66">
+        <v>0.31453999999999999</v>
+      </c>
+      <c r="G66">
+        <v>21.112100000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>13.134</v>
+      </c>
+      <c r="B67">
+        <v>25.111000000000001</v>
+      </c>
+      <c r="C67">
+        <v>0.32</v>
+      </c>
+      <c r="D67">
+        <v>6.1521999999999997</v>
+      </c>
+      <c r="E67">
+        <v>0.13789999999999999</v>
+      </c>
+      <c r="F67">
+        <v>0.32014999999999999</v>
+      </c>
+      <c r="G67">
+        <v>21.152200000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>13.333</v>
+      </c>
+      <c r="B68">
+        <v>25.111000000000001</v>
+      </c>
+      <c r="C68">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="D68">
+        <v>6.1946000000000003</v>
+      </c>
+      <c r="E68">
+        <v>0.14019000000000001</v>
+      </c>
+      <c r="F68">
+        <v>0.32636999999999999</v>
+      </c>
+      <c r="G68">
+        <v>21.194600000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>13.532</v>
+      </c>
+      <c r="B69">
+        <v>25.11</v>
+      </c>
+      <c r="C69">
+        <v>0.33</v>
+      </c>
+      <c r="D69">
+        <v>6.2351999999999999</v>
+      </c>
+      <c r="E69">
+        <v>0.14237</v>
+      </c>
+      <c r="F69">
+        <v>0.33018999999999998</v>
+      </c>
+      <c r="G69">
+        <v>21.235199999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>13.731</v>
+      </c>
+      <c r="B70">
+        <v>25.111000000000001</v>
+      </c>
+      <c r="C70">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="D70">
+        <v>6.2765000000000004</v>
+      </c>
+      <c r="E70">
+        <v>0.14459</v>
+      </c>
+      <c r="F70">
+        <v>0.33639000000000002</v>
+      </c>
+      <c r="G70">
+        <v>21.276499999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>13.93</v>
+      </c>
+      <c r="B71">
+        <v>25.11</v>
+      </c>
+      <c r="C71">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="D71">
+        <v>6.3163</v>
+      </c>
+      <c r="E71">
+        <v>0.14673</v>
+      </c>
+      <c r="F71">
+        <v>0.34114</v>
+      </c>
+      <c r="G71">
+        <v>21.316299999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>14.129</v>
+      </c>
+      <c r="B72">
+        <v>25.11</v>
+      </c>
+      <c r="C72">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="D72">
+        <v>6.3586999999999998</v>
+      </c>
+      <c r="E72">
+        <v>0.14902000000000001</v>
+      </c>
+      <c r="F72">
+        <v>0.34716999999999998</v>
+      </c>
+      <c r="G72">
+        <v>21.358699999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>14.327999999999999</v>
+      </c>
+      <c r="B73">
+        <v>25.11</v>
+      </c>
+      <c r="C73">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="D73">
+        <v>6.3997999999999999</v>
+      </c>
+      <c r="E73">
+        <v>0.15121999999999999</v>
+      </c>
+      <c r="F73">
+        <v>0.35165000000000002</v>
+      </c>
+      <c r="G73">
+        <v>21.399799999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>14.526999999999999</v>
+      </c>
+      <c r="B74">
+        <v>25.11</v>
+      </c>
+      <c r="C74">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="D74">
+        <v>6.4387999999999996</v>
+      </c>
+      <c r="E74">
+        <v>0.15332000000000001</v>
+      </c>
+      <c r="F74">
+        <v>0.35759999999999997</v>
+      </c>
+      <c r="G74">
+        <v>21.438800000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>14.726000000000001</v>
+      </c>
+      <c r="B75">
+        <v>25.109000000000002</v>
+      </c>
+      <c r="C75">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="D75">
+        <v>6.4782999999999999</v>
+      </c>
+      <c r="E75">
+        <v>0.15545</v>
+      </c>
+      <c r="F75">
+        <v>0.36092000000000002</v>
+      </c>
+      <c r="G75">
+        <v>21.478300000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>14.925000000000001</v>
+      </c>
+      <c r="B76">
+        <v>25.109000000000002</v>
+      </c>
+      <c r="C76">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="D76">
+        <v>6.5187999999999997</v>
+      </c>
+      <c r="E76">
+        <v>0.15762999999999999</v>
+      </c>
+      <c r="F76">
+        <v>0.36575999999999997</v>
+      </c>
+      <c r="G76">
+        <v>21.518799999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>15.124000000000001</v>
+      </c>
+      <c r="B77">
+        <v>25.109000000000002</v>
+      </c>
+      <c r="C77">
+        <v>0.372</v>
+      </c>
+      <c r="D77">
+        <v>6.5564999999999998</v>
+      </c>
+      <c r="E77">
+        <v>0.15964999999999999</v>
+      </c>
+      <c r="F77">
+        <v>0.37193999999999999</v>
+      </c>
+      <c r="G77">
+        <v>21.5565</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>15.323</v>
+      </c>
+      <c r="B78">
+        <v>25.109000000000002</v>
+      </c>
+      <c r="C78">
+        <v>0.374</v>
+      </c>
+      <c r="D78">
+        <v>6.5948000000000002</v>
+      </c>
+      <c r="E78">
+        <v>0.16172</v>
+      </c>
+      <c r="F78">
+        <v>0.37402000000000002</v>
+      </c>
+      <c r="G78">
+        <v>21.594799999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>15.522</v>
+      </c>
+      <c r="B79">
+        <v>25.109000000000002</v>
+      </c>
+      <c r="C79">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="D79">
+        <v>6.6342999999999996</v>
+      </c>
+      <c r="E79">
+        <v>0.16384000000000001</v>
+      </c>
+      <c r="F79">
+        <v>0.38189000000000001</v>
+      </c>
+      <c r="G79">
+        <v>21.6343</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>15.721</v>
+      </c>
+      <c r="B80">
+        <v>25.108000000000001</v>
+      </c>
+      <c r="C80">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="D80">
+        <v>6.6746999999999996</v>
+      </c>
+      <c r="E80">
+        <v>0.16600999999999999</v>
+      </c>
+      <c r="F80">
+        <v>0.38578000000000001</v>
+      </c>
+      <c r="G80">
+        <v>21.674700000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>15.92</v>
+      </c>
+      <c r="B81">
+        <v>25.108000000000001</v>
+      </c>
+      <c r="C81">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="D81">
+        <v>6.7135999999999996</v>
+      </c>
+      <c r="E81">
+        <v>0.16811000000000001</v>
+      </c>
+      <c r="F81">
+        <v>0.38757000000000003</v>
+      </c>
+      <c r="G81">
+        <v>21.7136</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>16.119</v>
+      </c>
+      <c r="B82">
+        <v>25.108000000000001</v>
+      </c>
+      <c r="C82">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="D82">
+        <v>6.7529000000000003</v>
+      </c>
+      <c r="E82">
+        <v>0.17022000000000001</v>
+      </c>
+      <c r="F82">
+        <v>0.39516000000000001</v>
+      </c>
+      <c r="G82">
+        <v>21.7529</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>16.318000000000001</v>
+      </c>
+      <c r="B83">
+        <v>25.108000000000001</v>
+      </c>
+      <c r="C83">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="D83">
+        <v>6.7946</v>
+      </c>
+      <c r="E83">
+        <v>0.17246</v>
+      </c>
+      <c r="F83">
+        <v>0.39831</v>
+      </c>
+      <c r="G83">
+        <v>21.794599999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>16.516999999999999</v>
+      </c>
+      <c r="B84">
+        <v>25.106999999999999</v>
+      </c>
+      <c r="C84">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="D84">
+        <v>6.8445999999999998</v>
+      </c>
+      <c r="E84">
+        <v>0.17515</v>
+      </c>
+      <c r="F84">
+        <v>0.40340999999999999</v>
+      </c>
+      <c r="G84">
+        <v>21.8446</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>16.716000000000001</v>
+      </c>
+      <c r="B85">
+        <v>25.106999999999999</v>
+      </c>
+      <c r="C85">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="D85">
+        <v>6.8747999999999996</v>
+      </c>
+      <c r="E85">
+        <v>0.17677999999999999</v>
+      </c>
+      <c r="F85">
+        <v>0.40861999999999998</v>
+      </c>
+      <c r="G85">
+        <v>21.8748</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <v>16.914999999999999</v>
+      </c>
+      <c r="B86">
+        <v>25.106000000000002</v>
+      </c>
+      <c r="C86">
+        <v>0.41</v>
+      </c>
+      <c r="D86">
+        <v>6.9138000000000002</v>
+      </c>
+      <c r="E86">
+        <v>0.17888000000000001</v>
+      </c>
+      <c r="F86">
+        <v>0.41037000000000001</v>
+      </c>
+      <c r="G86">
+        <v>21.913799999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>17.114000000000001</v>
+      </c>
+      <c r="B87">
+        <v>25.106999999999999</v>
+      </c>
+      <c r="C87">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="D87">
+        <v>6.9549000000000003</v>
+      </c>
+      <c r="E87">
+        <v>0.18109</v>
+      </c>
+      <c r="F87">
+        <v>0.41621999999999998</v>
+      </c>
+      <c r="G87">
+        <v>21.954899999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <v>17.312999999999999</v>
+      </c>
+      <c r="B88">
+        <v>25.106000000000002</v>
+      </c>
+      <c r="C88">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="D88">
+        <v>6.9946999999999999</v>
+      </c>
+      <c r="E88">
+        <v>0.18323</v>
+      </c>
+      <c r="F88">
+        <v>0.42146</v>
+      </c>
+      <c r="G88">
+        <v>21.994700000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <v>17.512</v>
+      </c>
+      <c r="B89">
+        <v>25.106000000000002</v>
+      </c>
+      <c r="C89">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="D89">
+        <v>7.0324</v>
+      </c>
+      <c r="E89">
+        <v>0.18526000000000001</v>
+      </c>
+      <c r="F89">
+        <v>0.42331999999999997</v>
+      </c>
+      <c r="G89">
+        <v>22.032399999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <v>17.710999999999999</v>
+      </c>
+      <c r="B90">
+        <v>25.106000000000002</v>
+      </c>
+      <c r="C90">
+        <v>0.43</v>
+      </c>
+      <c r="D90">
+        <v>7.0705999999999998</v>
+      </c>
+      <c r="E90">
+        <v>0.18731</v>
+      </c>
+      <c r="F90">
+        <v>0.43013000000000001</v>
+      </c>
+      <c r="G90">
+        <v>22.070599999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <v>17.91</v>
+      </c>
+      <c r="B91">
+        <v>25.106000000000002</v>
+      </c>
+      <c r="C91">
+        <v>0.433</v>
+      </c>
+      <c r="D91">
+        <v>7.11</v>
+      </c>
+      <c r="E91">
+        <v>0.18942999999999999</v>
+      </c>
+      <c r="F91">
+        <v>0.43298999999999999</v>
+      </c>
+      <c r="G91">
+        <v>22.11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A92">
+        <v>18.109000000000002</v>
+      </c>
+      <c r="B92">
+        <v>25.106000000000002</v>
+      </c>
+      <c r="C92">
+        <v>0.439</v>
+      </c>
+      <c r="D92">
+        <v>7.1467999999999998</v>
+      </c>
+      <c r="E92">
+        <v>0.19141</v>
+      </c>
+      <c r="F92">
+        <v>0.43945000000000001</v>
+      </c>
+      <c r="G92">
+        <v>22.146799999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A93">
+        <v>18.308</v>
+      </c>
+      <c r="B93">
+        <v>25.106000000000002</v>
+      </c>
+      <c r="C93">
+        <v>0.442</v>
+      </c>
+      <c r="D93">
+        <v>7.1843000000000004</v>
+      </c>
+      <c r="E93">
+        <v>0.19342999999999999</v>
+      </c>
+      <c r="F93">
+        <v>0.44241999999999998</v>
+      </c>
+      <c r="G93">
+        <v>22.1843</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A94">
+        <v>18.507000000000001</v>
+      </c>
+      <c r="B94">
+        <v>25.105</v>
+      </c>
+      <c r="C94">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="D94">
+        <v>7.2126999999999999</v>
+      </c>
+      <c r="E94">
+        <v>0.19495999999999999</v>
+      </c>
+      <c r="F94">
+        <v>0.44681999999999999</v>
+      </c>
+      <c r="G94">
+        <v>22.212700000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <v>18.706</v>
+      </c>
+      <c r="B95">
+        <v>25.105</v>
+      </c>
+      <c r="C95">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="D95">
+        <v>7.2630999999999997</v>
+      </c>
+      <c r="E95">
+        <v>0.19767000000000001</v>
+      </c>
+      <c r="F95">
+        <v>0.45161000000000001</v>
+      </c>
+      <c r="G95">
+        <v>22.263100000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A96">
+        <v>18.905000000000001</v>
+      </c>
+      <c r="B96">
+        <v>25.105</v>
+      </c>
+      <c r="C96">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="D96">
+        <v>7.3022</v>
+      </c>
+      <c r="E96">
+        <v>0.19977</v>
+      </c>
+      <c r="F96">
+        <v>0.45508999999999999</v>
+      </c>
+      <c r="G96">
+        <v>22.302199999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A97">
+        <v>19.103999999999999</v>
+      </c>
+      <c r="B97">
+        <v>25.103999999999999</v>
+      </c>
+      <c r="C97">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="D97">
+        <v>7.3418999999999999</v>
+      </c>
+      <c r="E97">
+        <v>0.20191000000000001</v>
+      </c>
+      <c r="F97">
+        <v>0.46110000000000001</v>
+      </c>
+      <c r="G97">
+        <v>22.341899999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A98">
+        <v>19.303000000000001</v>
+      </c>
+      <c r="B98">
+        <v>25.103999999999999</v>
+      </c>
+      <c r="C98">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="D98">
+        <v>7.3844000000000003</v>
+      </c>
+      <c r="E98">
+        <v>0.20419000000000001</v>
+      </c>
+      <c r="F98">
+        <v>0.46598000000000001</v>
+      </c>
+      <c r="G98">
+        <v>22.384399999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A99">
+        <v>19.501999999999999</v>
+      </c>
+      <c r="B99">
+        <v>25.103999999999999</v>
+      </c>
+      <c r="C99">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="D99">
+        <v>7.4256000000000002</v>
+      </c>
+      <c r="E99">
+        <v>0.20641000000000001</v>
+      </c>
+      <c r="F99">
+        <v>0.46833000000000002</v>
+      </c>
+      <c r="G99">
+        <v>22.425599999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <v>19.701000000000001</v>
+      </c>
+      <c r="B100">
+        <v>25.103999999999999</v>
+      </c>
+      <c r="C100">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="D100">
+        <v>7.4668000000000001</v>
+      </c>
+      <c r="E100">
+        <v>0.20863000000000001</v>
+      </c>
+      <c r="F100">
+        <v>0.47148000000000001</v>
+      </c>
+      <c r="G100">
+        <v>22.466799999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="B101">
+        <v>25.103999999999999</v>
+      </c>
+      <c r="C101">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="D101">
+        <v>7.5178000000000003</v>
+      </c>
+      <c r="E101">
+        <v>0.21137</v>
+      </c>
+      <c r="F101">
+        <v>0.47467999999999999</v>
+      </c>
+      <c r="G101">
+        <v>22.517800000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <v>20.099</v>
+      </c>
+      <c r="B102">
+        <v>25.103000000000002</v>
+      </c>
+      <c r="C102">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="D102">
+        <v>7.5503</v>
+      </c>
+      <c r="E102">
+        <v>0.21312</v>
+      </c>
+      <c r="F102">
+        <v>0.47847000000000001</v>
+      </c>
+      <c r="G102">
+        <v>22.5503</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <v>20.297999999999998</v>
+      </c>
+      <c r="B103">
+        <v>25.103999999999999</v>
+      </c>
+      <c r="C103">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="D103">
+        <v>7.6025999999999998</v>
+      </c>
+      <c r="E103">
+        <v>0.21593000000000001</v>
+      </c>
+      <c r="F103">
+        <v>0.48304000000000002</v>
+      </c>
+      <c r="G103">
+        <v>22.602599999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <v>20.497</v>
+      </c>
+      <c r="B104">
+        <v>25.103000000000002</v>
+      </c>
+      <c r="C104">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="D104">
+        <v>7.6326000000000001</v>
+      </c>
+      <c r="E104">
+        <v>0.21754000000000001</v>
+      </c>
+      <c r="F104">
+        <v>0.48657</v>
+      </c>
+      <c r="G104">
+        <v>22.6326</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <v>20.696000000000002</v>
+      </c>
+      <c r="B105">
+        <v>25.103000000000002</v>
+      </c>
+      <c r="C105">
+        <v>0.49</v>
+      </c>
+      <c r="D105">
+        <v>7.6729000000000003</v>
+      </c>
+      <c r="E105">
+        <v>0.21970999999999999</v>
+      </c>
+      <c r="F105">
+        <v>0.48971999999999999</v>
+      </c>
+      <c r="G105">
+        <v>22.672899999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <v>20.895</v>
+      </c>
+      <c r="B106">
+        <v>25.103000000000002</v>
+      </c>
+      <c r="C106">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="D106">
+        <v>7.7142999999999997</v>
+      </c>
+      <c r="E106">
+        <v>0.22194</v>
+      </c>
+      <c r="F106">
+        <v>0.49424000000000001</v>
+      </c>
+      <c r="G106">
+        <v>22.714300000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <v>21.094000000000001</v>
+      </c>
+      <c r="B107">
+        <v>25.103000000000002</v>
+      </c>
+      <c r="C107">
+        <v>0.497</v>
+      </c>
+      <c r="D107">
+        <v>7.7527999999999997</v>
+      </c>
+      <c r="E107">
+        <v>0.22400999999999999</v>
+      </c>
+      <c r="F107">
+        <v>0.49736999999999998</v>
+      </c>
+      <c r="G107">
+        <v>22.752800000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <v>21.292999999999999</v>
+      </c>
+      <c r="B108">
+        <v>25.103000000000002</v>
+      </c>
+      <c r="C108">
+        <v>0.501</v>
+      </c>
+      <c r="D108">
+        <v>7.7918000000000003</v>
+      </c>
+      <c r="E108">
+        <v>0.22611000000000001</v>
+      </c>
+      <c r="F108">
+        <v>0.50073000000000001</v>
+      </c>
+      <c r="G108">
+        <v>22.791799999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <v>21.492000000000001</v>
+      </c>
+      <c r="B109">
+        <v>25.102</v>
+      </c>
+      <c r="C109">
+        <v>0.504</v>
+      </c>
+      <c r="D109">
+        <v>7.8312999999999997</v>
+      </c>
+      <c r="E109">
+        <v>0.22824</v>
+      </c>
+      <c r="F109">
+        <v>0.50380999999999998</v>
+      </c>
+      <c r="G109">
+        <v>22.831299999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <v>21.690999999999999</v>
+      </c>
+      <c r="B110">
+        <v>25.102</v>
+      </c>
+      <c r="C110">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="D110">
+        <v>7.8719999999999999</v>
+      </c>
+      <c r="E110">
+        <v>0.23042000000000001</v>
+      </c>
+      <c r="F110">
+        <v>0.50578000000000001</v>
+      </c>
+      <c r="G110">
+        <v>22.872</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <v>21.89</v>
+      </c>
+      <c r="B111">
+        <v>25.102</v>
+      </c>
+      <c r="C111">
+        <v>0.51</v>
+      </c>
+      <c r="D111">
+        <v>7.9016999999999999</v>
+      </c>
+      <c r="E111">
+        <v>0.23202</v>
+      </c>
+      <c r="F111">
+        <v>0.50954999999999995</v>
+      </c>
+      <c r="G111">
+        <v>22.901700000000002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A112">
+        <v>22.088999999999999</v>
+      </c>
+      <c r="B112">
+        <v>25.102</v>
+      </c>
+      <c r="C112">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="D112">
+        <v>7.9515000000000002</v>
+      </c>
+      <c r="E112">
+        <v>0.23469999999999999</v>
+      </c>
+      <c r="F112">
+        <v>0.51332</v>
+      </c>
+      <c r="G112">
+        <v>22.951499999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <v>22.288</v>
+      </c>
+      <c r="B113">
+        <v>25.100999999999999</v>
+      </c>
+      <c r="C113">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="D113">
+        <v>8.0035000000000007</v>
+      </c>
+      <c r="E113">
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="F113">
+        <v>0.51773000000000002</v>
+      </c>
+      <c r="G113">
+        <v>23.003499999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <v>22.486999999999998</v>
+      </c>
+      <c r="B114">
+        <v>25.100999999999999</v>
+      </c>
+      <c r="C114">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="D114">
+        <v>8.0336999999999996</v>
+      </c>
+      <c r="E114">
+        <v>0.23912</v>
+      </c>
+      <c r="F114">
+        <v>0.52102999999999999</v>
+      </c>
+      <c r="G114">
+        <v>23.0337</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>22.686</v>
+      </c>
+      <c r="B115">
+        <v>25.102</v>
+      </c>
+      <c r="C115">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="D115">
+        <v>8.0744000000000007</v>
+      </c>
+      <c r="E115">
+        <v>0.24131</v>
+      </c>
+      <c r="F115">
+        <v>0.52524999999999999</v>
+      </c>
+      <c r="G115">
+        <v>23.074400000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <v>22.885000000000002</v>
+      </c>
+      <c r="B116">
+        <v>25.100999999999999</v>
+      </c>
+      <c r="C116">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="D116">
+        <v>8.1145999999999994</v>
+      </c>
+      <c r="E116">
+        <v>0.24346999999999999</v>
+      </c>
+      <c r="F116">
+        <v>0.52690000000000003</v>
+      </c>
+      <c r="G116">
+        <v>23.114599999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A117">
+        <v>23.084</v>
+      </c>
+      <c r="B117">
+        <v>25.100999999999999</v>
+      </c>
+      <c r="C117">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="D117">
+        <v>8.1562999999999999</v>
+      </c>
+      <c r="E117">
+        <v>0.24571999999999999</v>
+      </c>
+      <c r="F117">
+        <v>0.53169</v>
+      </c>
+      <c r="G117">
+        <v>23.156300000000002</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A118">
+        <v>23.283000000000001</v>
+      </c>
+      <c r="B118">
+        <v>25.100999999999999</v>
+      </c>
+      <c r="C118">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="D118">
+        <v>8.2067999999999994</v>
+      </c>
+      <c r="E118">
+        <v>0.24843000000000001</v>
+      </c>
+      <c r="F118">
+        <v>0.53541000000000005</v>
+      </c>
+      <c r="G118">
+        <v>23.206800000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <v>23.481999999999999</v>
+      </c>
+      <c r="B119">
+        <v>25.100999999999999</v>
+      </c>
+      <c r="C119">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="D119">
+        <v>8.2359000000000009</v>
+      </c>
+      <c r="E119">
+        <v>0.25</v>
+      </c>
+      <c r="F119">
+        <v>0.53815999999999997</v>
+      </c>
+      <c r="G119">
+        <v>23.235900000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A120">
+        <v>23.681000000000001</v>
+      </c>
+      <c r="B120">
+        <v>25.1</v>
+      </c>
+      <c r="C120">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="D120">
+        <v>8.2751000000000001</v>
+      </c>
+      <c r="E120">
+        <v>0.25211</v>
+      </c>
+      <c r="F120">
+        <v>0.54108999999999996</v>
+      </c>
+      <c r="G120">
+        <v>23.275099999999998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <v>23.88</v>
+      </c>
+      <c r="B121">
+        <v>25.1</v>
+      </c>
+      <c r="C121">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="D121">
+        <v>8.3152000000000008</v>
+      </c>
+      <c r="E121">
+        <v>0.25427</v>
+      </c>
+      <c r="F121">
+        <v>0.54513999999999996</v>
+      </c>
+      <c r="G121">
+        <v>23.315200000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A122">
+        <v>24.079000000000001</v>
+      </c>
+      <c r="B122">
+        <v>25.1</v>
+      </c>
+      <c r="C122">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="D122">
+        <v>8.3526000000000007</v>
+      </c>
+      <c r="E122">
+        <v>0.25628000000000001</v>
+      </c>
+      <c r="F122">
+        <v>0.54776999999999998</v>
+      </c>
+      <c r="G122">
+        <v>23.352599999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A123">
+        <v>24.277999999999999</v>
+      </c>
+      <c r="B123">
+        <v>25.1</v>
+      </c>
+      <c r="C123">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="D123">
+        <v>8.3998000000000008</v>
+      </c>
+      <c r="E123">
+        <v>0.25881999999999999</v>
+      </c>
+      <c r="F123">
+        <v>0.54920999999999998</v>
+      </c>
+      <c r="G123">
+        <v>23.399799999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A124">
+        <v>24.477</v>
+      </c>
+      <c r="B124">
+        <v>25.1</v>
+      </c>
+      <c r="C124">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="D124">
+        <v>8.4297000000000004</v>
+      </c>
+      <c r="E124">
+        <v>0.26041999999999998</v>
+      </c>
+      <c r="F124">
+        <v>0.55086999999999997</v>
+      </c>
+      <c r="G124">
+        <v>23.4297</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A125">
+        <v>24.675999999999998</v>
+      </c>
+      <c r="B125">
+        <v>25.099</v>
+      </c>
+      <c r="C125">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="D125">
+        <v>8.4796999999999993</v>
+      </c>
+      <c r="E125">
+        <v>0.26311000000000001</v>
+      </c>
+      <c r="F125">
+        <v>0.55354000000000003</v>
+      </c>
+      <c r="G125">
+        <v>23.479700000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A126">
+        <v>24.875</v>
+      </c>
+      <c r="B126">
+        <v>25.1</v>
+      </c>
+      <c r="C126">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="D126">
+        <v>8.5089000000000006</v>
+      </c>
+      <c r="E126">
+        <v>0.26468999999999998</v>
+      </c>
+      <c r="F126">
+        <v>0.55579000000000001</v>
+      </c>
+      <c r="G126">
+        <v>23.508900000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A127">
+        <v>25.074000000000002</v>
+      </c>
+      <c r="B127">
+        <v>25.099</v>
+      </c>
+      <c r="C127">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="D127">
+        <v>8.5593000000000004</v>
+      </c>
+      <c r="E127">
+        <v>0.26740000000000003</v>
+      </c>
+      <c r="F127">
+        <v>0.55730999999999997</v>
+      </c>
+      <c r="G127">
+        <v>23.5593</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A128">
+        <v>25.273</v>
+      </c>
+      <c r="B128">
+        <v>25.099</v>
+      </c>
+      <c r="C128">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="D128">
+        <v>8.5912000000000006</v>
+      </c>
+      <c r="E128">
+        <v>0.26912000000000003</v>
+      </c>
+      <c r="F128">
+        <v>0.55822000000000005</v>
+      </c>
+      <c r="G128">
+        <v>23.591200000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A129">
+        <v>25.472000000000001</v>
+      </c>
+      <c r="B129">
+        <v>25.099</v>
+      </c>
+      <c r="C129">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="D129">
+        <v>8.6320999999999994</v>
+      </c>
+      <c r="E129">
+        <v>0.27131</v>
+      </c>
+      <c r="F129">
+        <v>0.55808999999999997</v>
+      </c>
+      <c r="G129">
+        <v>23.632100000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A130">
+        <v>25.670999999999999</v>
+      </c>
+      <c r="B130">
+        <v>25.097999999999999</v>
+      </c>
+      <c r="C130">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="D130">
+        <v>8.6837999999999997</v>
+      </c>
+      <c r="E130">
+        <v>0.27410000000000001</v>
+      </c>
+      <c r="F130">
+        <v>0.55862000000000001</v>
+      </c>
+      <c r="G130">
+        <v>23.683800000000002</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A131">
+        <v>25.87</v>
+      </c>
+      <c r="B131">
+        <v>25.097999999999999</v>
+      </c>
+      <c r="C131">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="D131">
+        <v>8.7138000000000009</v>
+      </c>
+      <c r="E131">
+        <v>0.27571000000000001</v>
+      </c>
+      <c r="F131">
+        <v>0.55349000000000004</v>
+      </c>
+      <c r="G131">
+        <v>23.713799999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A132">
+        <v>26.068999999999999</v>
+      </c>
+      <c r="B132">
+        <v>25.097999999999999</v>
+      </c>
+      <c r="C132">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="D132">
+        <v>8.7563999999999993</v>
+      </c>
+      <c r="E132">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="F132">
+        <v>0.53820000000000001</v>
+      </c>
+      <c r="G132">
+        <v>23.756399999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A133">
+        <v>26.268000000000001</v>
+      </c>
+      <c r="B133">
+        <v>25.097999999999999</v>
+      </c>
+      <c r="C133">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="D133">
+        <v>8.7978000000000005</v>
+      </c>
+      <c r="E133">
+        <v>0.28022999999999998</v>
+      </c>
+      <c r="F133">
+        <v>0.46229999999999999</v>
+      </c>
+      <c r="G133">
+        <v>23.797799999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A134">
+        <v>26.466999999999999</v>
+      </c>
+      <c r="B134">
+        <v>25.097999999999999</v>
+      </c>
+      <c r="C134">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="D134">
+        <v>8.8374000000000006</v>
+      </c>
+      <c r="E134">
+        <v>0.28236</v>
+      </c>
+      <c r="F134">
+        <v>0.13167999999999999</v>
+      </c>
+      <c r="G134">
+        <v>23.837399999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A135">
+        <v>26.666</v>
+      </c>
+      <c r="B135">
+        <v>25.097999999999999</v>
+      </c>
+      <c r="C135">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="D135">
+        <v>8.8773999999999997</v>
+      </c>
+      <c r="E135">
+        <v>0.28450999999999999</v>
+      </c>
+      <c r="F135">
+        <v>-2.1250000000000002E-2</v>
+      </c>
+      <c r="G135">
+        <v>23.877400000000002</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A136">
+        <v>26.864999999999998</v>
+      </c>
+      <c r="B136">
+        <v>25.097999999999999</v>
+      </c>
+      <c r="C136">
+        <v>-4.5999999999999999E-2</v>
+      </c>
+      <c r="D136">
+        <v>8.9182000000000006</v>
+      </c>
+      <c r="E136">
+        <v>0.28670000000000001</v>
+      </c>
+      <c r="F136">
+        <v>-4.5749999999999999E-2</v>
+      </c>
+      <c r="G136">
+        <v>23.918199999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A137">
+        <v>27.064</v>
+      </c>
+      <c r="B137">
+        <v>25.097999999999999</v>
+      </c>
+      <c r="C137">
+        <v>-0.05</v>
+      </c>
+      <c r="D137">
+        <v>8.9563000000000006</v>
+      </c>
+      <c r="E137">
+        <v>0.28876000000000002</v>
+      </c>
+      <c r="F137">
+        <v>-5.0009999999999999E-2</v>
+      </c>
+      <c r="G137">
+        <v>23.956299999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A138">
+        <v>27.263000000000002</v>
+      </c>
+      <c r="B138">
+        <v>25.097999999999999</v>
+      </c>
+      <c r="C138">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="D138">
+        <v>9.0045000000000002</v>
+      </c>
+      <c r="E138">
+        <v>0.29135</v>
+      </c>
+      <c r="F138">
+        <v>-5.3199999999999997E-2</v>
+      </c>
+      <c r="G138">
+        <v>24.0045</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A139">
+        <v>27.462</v>
+      </c>
+      <c r="B139">
+        <v>25.097999999999999</v>
+      </c>
+      <c r="C139">
+        <v>-5.1999999999999998E-2</v>
+      </c>
+      <c r="D139">
+        <v>9.0349000000000004</v>
+      </c>
+      <c r="E139">
+        <v>0.29298000000000002</v>
+      </c>
+      <c r="F139">
+        <v>-5.2490000000000002E-2</v>
+      </c>
+      <c r="G139">
+        <v>24.0349</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A140">
+        <v>27.661000000000001</v>
+      </c>
+      <c r="B140">
+        <v>25.097000000000001</v>
+      </c>
+      <c r="C140">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="D140">
+        <v>9.0754000000000001</v>
+      </c>
+      <c r="E140">
+        <v>0.29515999999999998</v>
+      </c>
+      <c r="F140">
+        <v>-5.262E-2</v>
+      </c>
+      <c r="G140">
+        <v>24.075399999999998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A141">
+        <v>27.86</v>
+      </c>
+      <c r="B141">
+        <v>25.097000000000001</v>
+      </c>
+      <c r="C141">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="D141">
+        <v>9.1245999999999992</v>
+      </c>
+      <c r="E141">
+        <v>0.29781000000000002</v>
+      </c>
+      <c r="F141">
+        <v>-5.3699999999999998E-2</v>
+      </c>
+      <c r="G141">
+        <v>24.124600000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A142">
+        <v>28.059000000000001</v>
+      </c>
+      <c r="B142">
+        <v>25.097000000000001</v>
+      </c>
+      <c r="C142">
+        <v>-5.1999999999999998E-2</v>
+      </c>
+      <c r="D142">
+        <v>9.1546000000000003</v>
+      </c>
+      <c r="E142">
+        <v>0.29942000000000002</v>
+      </c>
+      <c r="F142">
+        <v>-5.2240000000000002E-2</v>
+      </c>
+      <c r="G142">
+        <v>24.154599999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A143">
+        <v>28.257999999999999</v>
+      </c>
+      <c r="B143">
+        <v>25.097000000000001</v>
+      </c>
+      <c r="C143">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="D143">
+        <v>9.1966999999999999</v>
+      </c>
+      <c r="E143">
+        <v>0.30168</v>
+      </c>
+      <c r="F143">
+        <v>-5.3469999999999997E-2</v>
+      </c>
+      <c r="G143">
+        <v>24.1967</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A144">
+        <v>28.457000000000001</v>
+      </c>
+      <c r="B144">
+        <v>25.097000000000001</v>
+      </c>
+      <c r="C144">
+        <v>-5.1999999999999998E-2</v>
+      </c>
+      <c r="D144">
+        <v>9.2469000000000001</v>
+      </c>
+      <c r="E144">
+        <v>0.30438999999999999</v>
+      </c>
+      <c r="F144">
+        <v>-5.2330000000000002E-2</v>
+      </c>
+      <c r="G144">
+        <v>24.2469</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A145">
+        <v>28.655999999999999</v>
+      </c>
+      <c r="B145">
+        <v>25.096</v>
+      </c>
+      <c r="C145">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="D145">
+        <v>9.2774999999999999</v>
+      </c>
+      <c r="E145">
+        <v>0.30603000000000002</v>
+      </c>
+      <c r="F145">
+        <v>-5.3690000000000002E-2</v>
+      </c>
+      <c r="G145">
+        <v>24.2775</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A146">
+        <v>28.855</v>
+      </c>
+      <c r="B146">
+        <v>25.096</v>
+      </c>
+      <c r="C146">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="D146">
+        <v>9.3170000000000002</v>
+      </c>
+      <c r="E146">
+        <v>0.30815999999999999</v>
+      </c>
+      <c r="F146">
+        <v>-5.3510000000000002E-2</v>
+      </c>
+      <c r="G146">
+        <v>24.317</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A147">
+        <v>29.053999999999998</v>
+      </c>
+      <c r="B147">
+        <v>25.096</v>
+      </c>
+      <c r="C147">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="D147">
+        <v>9.3587000000000007</v>
+      </c>
+      <c r="E147">
+        <v>0.31040000000000001</v>
+      </c>
+      <c r="F147">
+        <v>-5.3449999999999998E-2</v>
+      </c>
+      <c r="G147">
+        <v>24.358699999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A148">
+        <v>29.253</v>
+      </c>
+      <c r="B148">
+        <v>25.096</v>
+      </c>
+      <c r="C148">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="D148">
+        <v>9.3989999999999991</v>
+      </c>
+      <c r="E148">
+        <v>0.31257000000000001</v>
+      </c>
+      <c r="F148">
+        <v>-5.2609999999999997E-2</v>
+      </c>
+      <c r="G148">
+        <v>24.399000000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A149">
+        <v>29.452000000000002</v>
+      </c>
+      <c r="B149">
+        <v>25.096</v>
+      </c>
+      <c r="C149">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="D149">
+        <v>9.4373000000000005</v>
+      </c>
+      <c r="E149">
+        <v>0.31463000000000002</v>
+      </c>
+      <c r="F149">
+        <v>-5.2519999999999997E-2</v>
+      </c>
+      <c r="G149">
+        <v>24.4373</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A150">
+        <v>29.651</v>
+      </c>
+      <c r="B150">
+        <v>25.094999999999999</v>
+      </c>
+      <c r="C150">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="D150">
+        <v>9.4760000000000009</v>
+      </c>
+      <c r="E150">
+        <v>0.31670999999999999</v>
+      </c>
+      <c r="F150">
+        <v>-5.3100000000000001E-2</v>
+      </c>
+      <c r="G150">
+        <v>24.475999999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A151">
+        <v>29.85</v>
+      </c>
+      <c r="B151">
+        <v>25.094999999999999</v>
+      </c>
+      <c r="C151">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="D151">
+        <v>9.5158000000000005</v>
+      </c>
+      <c r="E151">
+        <v>0.31885000000000002</v>
+      </c>
+      <c r="F151">
+        <v>-5.3350000000000002E-2</v>
+      </c>
+      <c r="G151">
+        <v>24.515799999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A152">
+        <v>30.048999999999999</v>
+      </c>
+      <c r="B152">
+        <v>25.096</v>
+      </c>
+      <c r="C152">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="D152">
+        <v>9.5526999999999997</v>
+      </c>
+      <c r="E152">
+        <v>0.32084000000000001</v>
+      </c>
+      <c r="F152">
+        <v>-5.3129999999999997E-2</v>
+      </c>
+      <c r="G152">
+        <v>24.552700000000002</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A153">
+        <v>30.248000000000001</v>
+      </c>
+      <c r="B153">
+        <v>25.094999999999999</v>
+      </c>
+      <c r="C153">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="D153">
+        <v>9.59</v>
+      </c>
+      <c r="E153">
+        <v>0.32285000000000003</v>
+      </c>
+      <c r="F153">
+        <v>-5.321E-2</v>
+      </c>
+      <c r="G153">
+        <v>24.59</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A154">
+        <v>30.446999999999999</v>
+      </c>
+      <c r="B154">
+        <v>25.094999999999999</v>
+      </c>
+      <c r="C154">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="D154">
+        <v>9.6288999999999998</v>
+      </c>
+      <c r="E154">
+        <v>0.32494000000000001</v>
+      </c>
+      <c r="F154">
+        <v>-5.4019999999999999E-2</v>
+      </c>
+      <c r="G154">
+        <v>24.628900000000002</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A155">
+        <v>30.646000000000001</v>
+      </c>
+      <c r="B155">
+        <v>25.096</v>
+      </c>
+      <c r="C155">
+        <v>-5.5E-2</v>
+      </c>
+      <c r="D155">
+        <v>9.6687999999999992</v>
+      </c>
+      <c r="E155">
+        <v>0.32708999999999999</v>
+      </c>
+      <c r="F155">
+        <v>-5.4629999999999998E-2</v>
+      </c>
+      <c r="G155">
+        <v>24.668800000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A156">
+        <v>30.844999999999999</v>
+      </c>
+      <c r="B156">
+        <v>25.094999999999999</v>
+      </c>
+      <c r="C156">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="D156">
+        <v>9.7075999999999993</v>
+      </c>
+      <c r="E156">
+        <v>0.32917000000000002</v>
+      </c>
+      <c r="F156">
+        <v>-5.3370000000000001E-2</v>
+      </c>
+      <c r="G156">
+        <v>24.707599999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A157">
+        <v>31.044</v>
+      </c>
+      <c r="B157">
+        <v>25.094999999999999</v>
+      </c>
+      <c r="C157">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="D157">
+        <v>9.7469999999999999</v>
+      </c>
+      <c r="E157">
+        <v>0.33128999999999997</v>
+      </c>
+      <c r="F157">
+        <v>-5.3109999999999997E-2</v>
+      </c>
+      <c r="G157">
+        <v>24.747</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A158">
+        <v>31.242999999999999</v>
+      </c>
+      <c r="B158">
+        <v>25.094000000000001</v>
+      </c>
+      <c r="C158">
+        <v>-5.1999999999999998E-2</v>
+      </c>
+      <c r="D158">
+        <v>9.7993000000000006</v>
+      </c>
+      <c r="E158">
+        <v>0.33410000000000001</v>
+      </c>
+      <c r="F158">
+        <v>-5.237E-2</v>
+      </c>
+      <c r="G158">
+        <v>24.799299999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A159">
+        <v>31.442</v>
+      </c>
+      <c r="B159">
+        <v>25.094999999999999</v>
+      </c>
+      <c r="C159">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="D159">
+        <v>9.8293999999999997</v>
+      </c>
+      <c r="E159">
+        <v>0.33572000000000002</v>
+      </c>
+      <c r="F159">
+        <v>-5.3769999999999998E-2</v>
+      </c>
+      <c r="G159">
+        <v>24.8294</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A160">
+        <v>31.640999999999998</v>
+      </c>
+      <c r="B160">
+        <v>25.094000000000001</v>
+      </c>
+      <c r="C160">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="D160">
+        <v>9.8703000000000003</v>
+      </c>
+      <c r="E160">
+        <v>0.33792</v>
+      </c>
+      <c r="F160">
+        <v>-5.4399999999999997E-2</v>
+      </c>
+      <c r="G160">
+        <v>24.8703</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A161">
+        <v>31.84</v>
+      </c>
+      <c r="B161">
+        <v>25.094000000000001</v>
+      </c>
+      <c r="C161">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="D161">
+        <v>9.91</v>
+      </c>
+      <c r="E161">
+        <v>0.34005999999999997</v>
+      </c>
+      <c r="F161">
+        <v>-5.3620000000000001E-2</v>
+      </c>
+      <c r="G161">
+        <v>24.91</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A162">
+        <v>32.039000000000001</v>
+      </c>
+      <c r="B162">
+        <v>25.094000000000001</v>
+      </c>
+      <c r="C162">
+        <v>-5.5E-2</v>
+      </c>
+      <c r="D162">
+        <v>9.9417000000000009</v>
+      </c>
+      <c r="E162">
+        <v>0.34177000000000002</v>
+      </c>
+      <c r="F162">
+        <v>-5.518E-2</v>
+      </c>
+      <c r="G162">
+        <v>24.941700000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A163">
+        <v>32.238</v>
+      </c>
+      <c r="B163">
+        <v>25.094000000000001</v>
+      </c>
+      <c r="C163">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="D163">
+        <v>9.9938000000000002</v>
+      </c>
+      <c r="E163">
+        <v>0.34456999999999999</v>
+      </c>
+      <c r="F163">
+        <v>-5.4289999999999998E-2</v>
+      </c>
+      <c r="G163">
+        <v>24.9938</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A164">
+        <v>32.436999999999998</v>
+      </c>
+      <c r="B164">
+        <v>25.094000000000001</v>
+      </c>
+      <c r="C164">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="D164">
+        <v>10.033200000000001</v>
+      </c>
+      <c r="E164">
+        <v>0.34669</v>
+      </c>
+      <c r="F164">
+        <v>-5.4129999999999998E-2</v>
+      </c>
+      <c r="G164">
+        <v>25.033200000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A165">
+        <v>32.636000000000003</v>
+      </c>
+      <c r="B165">
+        <v>25.094000000000001</v>
+      </c>
+      <c r="C165">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="D165">
+        <v>10.073</v>
+      </c>
+      <c r="E165">
+        <v>0.34882999999999997</v>
+      </c>
+      <c r="F165">
+        <v>-5.3460000000000001E-2</v>
+      </c>
+      <c r="G165">
+        <v>25.073</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A166">
+        <v>32.835000000000001</v>
+      </c>
+      <c r="B166">
+        <v>25.094000000000001</v>
+      </c>
+      <c r="C166">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="D166">
+        <v>10.114000000000001</v>
+      </c>
+      <c r="E166">
+        <v>0.35104000000000002</v>
+      </c>
+      <c r="F166">
+        <v>-5.4280000000000002E-2</v>
+      </c>
+      <c r="G166">
+        <v>25.114000000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A167">
+        <v>33.033999999999999</v>
+      </c>
+      <c r="B167">
+        <v>25.093</v>
+      </c>
+      <c r="C167">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="D167">
+        <v>10.152200000000001</v>
+      </c>
+      <c r="E167">
+        <v>0.35309000000000001</v>
+      </c>
+      <c r="F167">
+        <v>-5.2979999999999999E-2</v>
+      </c>
+      <c r="G167">
+        <v>25.152200000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A168">
+        <v>33.232999999999997</v>
+      </c>
+      <c r="B168">
+        <v>25.093</v>
+      </c>
+      <c r="C168">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="D168">
+        <v>10.190799999999999</v>
+      </c>
+      <c r="E168">
+        <v>0.35516999999999999</v>
+      </c>
+      <c r="F168">
+        <v>-5.3629999999999997E-2</v>
+      </c>
+      <c r="G168">
+        <v>25.190799999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A169">
+        <v>33.432000000000002</v>
+      </c>
+      <c r="B169">
+        <v>25.093</v>
+      </c>
+      <c r="C169">
+        <v>-5.5E-2</v>
+      </c>
+      <c r="D169">
+        <v>10.2302</v>
+      </c>
+      <c r="E169">
+        <v>0.35727999999999999</v>
+      </c>
+      <c r="F169">
+        <v>-5.4550000000000001E-2</v>
+      </c>
+      <c r="G169">
+        <v>25.2302</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A170">
+        <v>33.631</v>
+      </c>
+      <c r="B170">
+        <v>25.093</v>
+      </c>
+      <c r="C170">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="D170">
+        <v>10.2608</v>
+      </c>
+      <c r="E170">
+        <v>0.35893000000000003</v>
+      </c>
+      <c r="F170">
+        <v>-5.3839999999999999E-2</v>
+      </c>
+      <c r="G170">
+        <v>25.2608</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A171">
+        <v>33.83</v>
+      </c>
+      <c r="B171">
+        <v>25.093</v>
+      </c>
+      <c r="C171">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="D171">
+        <v>10.309900000000001</v>
+      </c>
+      <c r="E171">
+        <v>0.36158000000000001</v>
+      </c>
+      <c r="F171">
+        <v>-5.4429999999999999E-2</v>
+      </c>
+      <c r="G171">
+        <v>25.309899999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A172">
+        <v>34.029000000000003</v>
+      </c>
+      <c r="B172">
+        <v>25.093</v>
+      </c>
+      <c r="C172">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="D172">
+        <v>10.349299999999999</v>
+      </c>
+      <c r="E172">
+        <v>0.36369000000000001</v>
+      </c>
+      <c r="F172">
+        <v>-5.3960000000000001E-2</v>
+      </c>
+      <c r="G172">
+        <v>25.349299999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A173">
+        <v>34.228000000000002</v>
+      </c>
+      <c r="B173">
+        <v>25.093</v>
+      </c>
+      <c r="C173">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="D173">
+        <v>10.3912</v>
+      </c>
+      <c r="E173">
+        <v>0.36595</v>
+      </c>
+      <c r="F173">
+        <v>-5.3150000000000003E-2</v>
+      </c>
+      <c r="G173">
+        <v>25.391200000000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A174">
+        <v>34.427</v>
+      </c>
+      <c r="B174">
+        <v>25.091999999999999</v>
+      </c>
+      <c r="C174">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="D174">
+        <v>10.431900000000001</v>
+      </c>
+      <c r="E174">
+        <v>0.36814000000000002</v>
+      </c>
+      <c r="F174">
+        <v>-5.3150000000000003E-2</v>
+      </c>
+      <c r="G174">
+        <v>25.431899999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A175">
+        <v>34.625999999999998</v>
+      </c>
+      <c r="B175">
+        <v>25.093</v>
+      </c>
+      <c r="C175">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="D175">
+        <v>10.4719</v>
+      </c>
+      <c r="E175">
+        <v>0.37029000000000001</v>
+      </c>
+      <c r="F175">
+        <v>-5.4030000000000002E-2</v>
+      </c>
+      <c r="G175">
+        <v>25.471900000000002</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A176">
+        <v>34.825000000000003</v>
+      </c>
+      <c r="B176">
+        <v>25.091999999999999</v>
+      </c>
+      <c r="C176">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="D176">
+        <v>10.5116</v>
+      </c>
+      <c r="E176">
+        <v>0.37241999999999997</v>
+      </c>
+      <c r="F176">
+        <v>-5.2859999999999997E-2</v>
+      </c>
+      <c r="G176">
+        <v>25.511600000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A177">
+        <v>35.024000000000001</v>
+      </c>
+      <c r="B177">
+        <v>25.091999999999999</v>
+      </c>
+      <c r="C177">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="D177">
+        <v>10.542999999999999</v>
+      </c>
+      <c r="E177">
+        <v>0.37411</v>
+      </c>
+      <c r="F177">
+        <v>-5.3719999999999997E-2</v>
+      </c>
+      <c r="G177">
+        <v>25.542999999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A178">
+        <v>35.222999999999999</v>
+      </c>
+      <c r="B178">
+        <v>25.091999999999999</v>
+      </c>
+      <c r="C178">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="D178">
+        <v>10.5945</v>
+      </c>
+      <c r="E178">
+        <v>0.37687999999999999</v>
+      </c>
+      <c r="F178">
+        <v>-5.3240000000000003E-2</v>
+      </c>
+      <c r="G178">
+        <v>25.5945</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A179">
+        <v>35.421999999999997</v>
+      </c>
+      <c r="B179">
+        <v>25.091999999999999</v>
+      </c>
+      <c r="C179">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="D179">
+        <v>10.6335</v>
+      </c>
+      <c r="E179">
+        <v>0.37897999999999998</v>
+      </c>
+      <c r="F179">
+        <v>-5.3519999999999998E-2</v>
+      </c>
+      <c r="G179">
+        <v>25.633500000000002</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A180">
+        <v>35.621000000000002</v>
+      </c>
+      <c r="B180">
+        <v>25.091999999999999</v>
+      </c>
+      <c r="C180">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="D180">
+        <v>10.6729</v>
+      </c>
+      <c r="E180">
+        <v>0.38109999999999999</v>
+      </c>
+      <c r="F180">
+        <v>-5.3659999999999999E-2</v>
+      </c>
+      <c r="G180">
+        <v>25.672899999999998</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A181">
+        <v>35.82</v>
+      </c>
+      <c r="B181">
+        <v>25.091999999999999</v>
+      </c>
+      <c r="C181">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="D181">
+        <v>10.7133</v>
+      </c>
+      <c r="E181">
+        <v>0.38327</v>
+      </c>
+      <c r="F181">
+        <v>-5.4269999999999999E-2</v>
+      </c>
+      <c r="G181">
+        <v>25.7133</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A182">
+        <v>36.018999999999998</v>
+      </c>
+      <c r="B182">
+        <v>25.091999999999999</v>
+      </c>
+      <c r="C182">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="D182">
+        <v>10.7417</v>
+      </c>
+      <c r="E182">
+        <v>0.38479999999999998</v>
+      </c>
+      <c r="F182">
+        <v>-5.3539999999999997E-2</v>
+      </c>
+      <c r="G182">
+        <v>25.741700000000002</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A183">
+        <v>36.218000000000004</v>
+      </c>
+      <c r="B183">
+        <v>25.091999999999999</v>
+      </c>
+      <c r="C183">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="D183">
+        <v>10.789099999999999</v>
+      </c>
+      <c r="E183">
+        <v>0.38735000000000003</v>
+      </c>
+      <c r="F183">
+        <v>-5.3359999999999998E-2</v>
+      </c>
+      <c r="G183">
+        <v>25.789100000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A184">
+        <v>36.417000000000002</v>
+      </c>
+      <c r="B184">
+        <v>25.091000000000001</v>
+      </c>
+      <c r="C184">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="D184">
+        <v>10.8283</v>
+      </c>
+      <c r="E184">
+        <v>0.38945999999999997</v>
+      </c>
+      <c r="F184">
+        <v>-5.3060000000000003E-2</v>
+      </c>
+      <c r="G184">
+        <v>25.828299999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A185">
+        <v>36.616</v>
+      </c>
+      <c r="B185">
+        <v>25.091000000000001</v>
+      </c>
+      <c r="C185">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="D185">
+        <v>10.868600000000001</v>
+      </c>
+      <c r="E185">
+        <v>0.39162999999999998</v>
+      </c>
+      <c r="F185">
+        <v>-5.4100000000000002E-2</v>
+      </c>
+      <c r="G185">
+        <v>25.868600000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A186">
+        <v>36.814999999999998</v>
+      </c>
+      <c r="B186">
+        <v>25.091000000000001</v>
+      </c>
+      <c r="C186">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="D186">
+        <v>10.8979</v>
+      </c>
+      <c r="E186">
+        <v>0.39321</v>
+      </c>
+      <c r="F186">
+        <v>-5.3539999999999997E-2</v>
+      </c>
+      <c r="G186">
+        <v>25.8979</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A187">
+        <v>37.014000000000003</v>
+      </c>
+      <c r="B187">
+        <v>25.091000000000001</v>
+      </c>
+      <c r="C187">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="D187">
+        <v>10.9476</v>
+      </c>
+      <c r="E187">
+        <v>0.39588000000000001</v>
+      </c>
+      <c r="F187">
+        <v>-5.3080000000000002E-2</v>
+      </c>
+      <c r="G187">
+        <v>25.947600000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A188">
+        <v>37.213000000000001</v>
+      </c>
+      <c r="B188">
+        <v>25.091000000000001</v>
+      </c>
+      <c r="C188">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="D188">
+        <v>10.9892</v>
+      </c>
+      <c r="E188">
+        <v>0.39811999999999997</v>
+      </c>
+      <c r="F188">
+        <v>-5.3769999999999998E-2</v>
+      </c>
+      <c r="G188">
+        <v>25.9892</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A189">
+        <v>37.411999999999999</v>
+      </c>
+      <c r="B189">
+        <v>25.091000000000001</v>
+      </c>
+      <c r="C189">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="D189">
+        <v>11.0297</v>
+      </c>
+      <c r="E189">
+        <v>0.40028999999999998</v>
+      </c>
+      <c r="F189">
+        <v>-5.3220000000000003E-2</v>
+      </c>
+      <c r="G189">
+        <v>26.029699999999998</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A190">
+        <v>37.610999999999997</v>
+      </c>
+      <c r="B190">
+        <v>25.091000000000001</v>
+      </c>
+      <c r="C190">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="D190">
+        <v>11.071099999999999</v>
+      </c>
+      <c r="E190">
+        <v>0.40251999999999999</v>
+      </c>
+      <c r="F190">
+        <v>-5.4219999999999997E-2</v>
+      </c>
+      <c r="G190">
+        <v>26.071100000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A191">
+        <v>37.81</v>
+      </c>
+      <c r="B191">
+        <v>25.091000000000001</v>
+      </c>
+      <c r="C191">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="D191">
+        <v>11.1114</v>
+      </c>
+      <c r="E191">
+        <v>0.40468999999999999</v>
+      </c>
+      <c r="F191">
+        <v>-5.3240000000000003E-2</v>
+      </c>
+      <c r="G191">
+        <v>26.1114</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A192">
+        <v>38.009</v>
+      </c>
+      <c r="B192">
+        <v>25.091000000000001</v>
+      </c>
+      <c r="C192">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="D192">
+        <v>11.1431</v>
+      </c>
+      <c r="E192">
+        <v>0.40638999999999997</v>
+      </c>
+      <c r="F192">
+        <v>-5.3600000000000002E-2</v>
+      </c>
+      <c r="G192">
+        <v>26.1431</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A193">
+        <v>38.207999999999998</v>
+      </c>
+      <c r="B193">
+        <v>25.09</v>
+      </c>
+      <c r="C193">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="D193">
+        <v>11.194900000000001</v>
+      </c>
+      <c r="E193">
+        <v>0.40917999999999999</v>
+      </c>
+      <c r="F193">
+        <v>-5.3629999999999997E-2</v>
+      </c>
+      <c r="G193">
+        <v>26.194900000000001</v>
       </c>
     </row>
   </sheetData>
